--- a/form_reporting_templates/Form-3DA-update.xlsx
+++ b/form_reporting_templates/Form-3DA-update.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F90722E-4751-4162-99DC-1E85BF44FF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C220AFCE-BE19-40DA-9B7D-EC51DFBB9BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5DvQh67CqwpXF5nvK7dpPxR3Pt0yB/nZxqejbtUHEzmemyWSbLakjzpL/AJnjHY2PfyZeKC6tZsl2wcqhenc9Q==" workbookSaltValue="SFs4XJpRzZAAYXRJrz5n4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Focal point</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>3DA-update</t>
+  </si>
+  <si>
+    <t>FI</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +320,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -825,7 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1204,6 +1213,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1820,7 +1832,9 @@
       <c r="C25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="127" t="s">
+        <v>50</v>
+      </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -1887,7 +1901,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EVU8qgmzZyVX3qZtwOmhVSXnb+iKGWnloC1yWIRie6jPkshgzsRJj+xGgZXV7W3aPWJoHUkEprIg+POXAL4i6A==" saltValue="yJSi3YCafC3KkAAp/DnWGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gvzOVH6Nyf1GhOekhIMZEtbG1MOVKgpoLvOML7omcAdO/gkSlWNgc9k7OV5BtQiqR5ye27H0QCnvoy8WJhzCCw==" saltValue="tJW3X1N5tm+yjJCAu+E9hw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>

--- a/form_reporting_templates/Form-3DA-update.xlsx
+++ b/form_reporting_templates/Form-3DA-update.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C220AFCE-BE19-40DA-9B7D-EC51DFBB9BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98927890-CCE2-457C-954B-A18AF229D01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5DvQh67CqwpXF5nvK7dpPxR3Pt0yB/nZxqejbtUHEzmemyWSbLakjzpL/AJnjHY2PfyZeKC6tZsl2wcqhenc9Q==" workbookSaltValue="SFs4XJpRzZAAYXRJrz5n4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$B$7:$Z$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -72,9 +75,6 @@
     <t>Form</t>
   </si>
   <si>
-    <t>Main stratum</t>
-  </si>
-  <si>
     <t>1.0.0</t>
   </si>
   <si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>FI</t>
+  </si>
+  <si>
+    <t>Main elements</t>
   </si>
 </sst>
 </file>
@@ -327,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -507,30 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -680,17 +659,6 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -808,19 +776,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -834,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -873,15 +828,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -918,31 +873,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -953,9 +908,6 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,7 +933,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -993,7 +945,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1005,217 +957,241 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1577,24 +1553,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
+      <c r="B2" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
@@ -1602,14 +1578,14 @@
         <v>10</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -1644,15 +1620,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="109"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="109"/>
+      <c r="F8" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="105"/>
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1671,12 +1647,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
@@ -1693,7 +1669,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="24"/>
@@ -1758,7 +1734,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="20"/>
@@ -1766,12 +1742,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="20"/>
@@ -1779,12 +1755,12 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="24"/>
       <c r="F20" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="20"/>
@@ -1830,10 +1806,10 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="127" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="D25" s="98" t="s">
+        <v>49</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -1880,11 +1856,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="108"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1938,58 +1914,58 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="103" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="97" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="13" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="52" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="53" customWidth="1"/>
-    <col min="11" max="11" width="10" style="51" customWidth="1"/>
-    <col min="12" max="12" width="10" style="52" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="49" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="51" customWidth="1"/>
-    <col min="15" max="17" width="7.85546875" style="60" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="51" customWidth="1"/>
-    <col min="19" max="19" width="10" style="57" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="53" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="51" customWidth="1"/>
-    <col min="22" max="24" width="7.85546875" style="60" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" style="51" customWidth="1"/>
-    <col min="26" max="26" width="10" style="70" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" style="76" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="89"/>
-    <col min="29" max="126" width="9.140625" style="90"/>
-    <col min="127" max="127" width="9.140625" style="91"/>
+    <col min="6" max="6" width="7.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="52" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="51" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="52" customWidth="1"/>
+    <col min="11" max="11" width="10" style="50" customWidth="1"/>
+    <col min="12" max="12" width="10" style="51" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="48" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="50" customWidth="1"/>
+    <col min="15" max="17" width="7.85546875" style="59" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="50" customWidth="1"/>
+    <col min="19" max="19" width="10" style="56" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="52" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" style="50" customWidth="1"/>
+    <col min="22" max="24" width="7.85546875" style="59" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" style="50" customWidth="1"/>
+    <col min="26" max="26" width="10" style="68" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" style="73" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="86"/>
+    <col min="29" max="126" width="9.140625" style="87"/>
+    <col min="127" max="127" width="9.140625" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:127" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6"/>
-      <c r="C1" s="98"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="54"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="53"/>
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
@@ -2093,848 +2069,848 @@
       <c r="DW1"/>
     </row>
     <row r="2" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71"/>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="71"/>
-      <c r="BK2" s="71"/>
-      <c r="BL2" s="71"/>
-      <c r="BM2" s="71"/>
-      <c r="BN2" s="71"/>
-      <c r="BO2" s="71"/>
-      <c r="BP2" s="71"/>
-      <c r="BQ2" s="71"/>
-      <c r="BR2" s="71"/>
-      <c r="BS2" s="71"/>
-      <c r="BT2" s="71"/>
-      <c r="BU2" s="71"/>
-      <c r="BV2" s="71"/>
-      <c r="BW2" s="71"/>
-      <c r="BX2" s="71"/>
-      <c r="BY2" s="71"/>
-      <c r="BZ2" s="71"/>
-      <c r="CA2" s="71"/>
-      <c r="CB2" s="71"/>
-      <c r="CC2" s="71"/>
-      <c r="CD2" s="71"/>
-      <c r="CE2" s="71"/>
-      <c r="CF2" s="71"/>
-      <c r="CG2" s="71"/>
-      <c r="CH2" s="71"/>
-      <c r="CI2" s="71"/>
-      <c r="CJ2" s="71"/>
-      <c r="CK2" s="71"/>
-      <c r="CL2" s="71"/>
-      <c r="CM2" s="71"/>
-      <c r="CN2" s="71"/>
-      <c r="CO2" s="71"/>
-      <c r="CP2" s="71"/>
-      <c r="CQ2" s="71"/>
-      <c r="CR2" s="71"/>
-      <c r="CS2" s="71"/>
-      <c r="CT2" s="71"/>
-      <c r="CU2" s="71"/>
-      <c r="CV2" s="71"/>
-      <c r="CW2" s="71"/>
-      <c r="CX2" s="71"/>
-      <c r="CY2" s="71"/>
-      <c r="CZ2" s="71"/>
-      <c r="DA2" s="71"/>
-      <c r="DB2" s="71"/>
-      <c r="DC2" s="71"/>
-      <c r="DD2" s="71"/>
-      <c r="DE2" s="71"/>
-      <c r="DF2" s="71"/>
-      <c r="DG2" s="71"/>
-      <c r="DH2" s="71"/>
-      <c r="DI2" s="71"/>
-      <c r="DJ2" s="71"/>
-      <c r="DK2" s="71"/>
-      <c r="DL2" s="71"/>
-      <c r="DM2" s="71"/>
-      <c r="DN2" s="71"/>
-      <c r="DO2" s="71"/>
-      <c r="DP2" s="71"/>
-      <c r="DQ2" s="71"/>
-      <c r="DR2" s="71"/>
-      <c r="DS2" s="71"/>
-      <c r="DT2" s="71"/>
-      <c r="DU2" s="71"/>
-      <c r="DV2" s="71"/>
-      <c r="DW2" s="72"/>
+      <c r="B2" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="69"/>
+      <c r="BR2" s="69"/>
+      <c r="BS2" s="69"/>
+      <c r="BT2" s="69"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="69"/>
+      <c r="BX2" s="69"/>
+      <c r="BY2" s="69"/>
+      <c r="BZ2" s="69"/>
+      <c r="CA2" s="69"/>
+      <c r="CB2" s="69"/>
+      <c r="CC2" s="69"/>
+      <c r="CD2" s="69"/>
+      <c r="CE2" s="69"/>
+      <c r="CF2" s="69"/>
+      <c r="CG2" s="69"/>
+      <c r="CH2" s="69"/>
+      <c r="CI2" s="69"/>
+      <c r="CJ2" s="69"/>
+      <c r="CK2" s="69"/>
+      <c r="CL2" s="69"/>
+      <c r="CM2" s="69"/>
+      <c r="CN2" s="69"/>
+      <c r="CO2" s="69"/>
+      <c r="CP2" s="69"/>
+      <c r="CQ2" s="69"/>
+      <c r="CR2" s="69"/>
+      <c r="CS2" s="69"/>
+      <c r="CT2" s="69"/>
+      <c r="CU2" s="69"/>
+      <c r="CV2" s="69"/>
+      <c r="CW2" s="69"/>
+      <c r="CX2" s="69"/>
+      <c r="CY2" s="69"/>
+      <c r="CZ2" s="69"/>
+      <c r="DA2" s="69"/>
+      <c r="DB2" s="69"/>
+      <c r="DC2" s="69"/>
+      <c r="DD2" s="69"/>
+      <c r="DE2" s="69"/>
+      <c r="DF2" s="69"/>
+      <c r="DG2" s="69"/>
+      <c r="DH2" s="69"/>
+      <c r="DI2" s="69"/>
+      <c r="DJ2" s="69"/>
+      <c r="DK2" s="69"/>
+      <c r="DL2" s="69"/>
+      <c r="DM2" s="69"/>
+      <c r="DN2" s="69"/>
+      <c r="DO2" s="69"/>
+      <c r="DP2" s="69"/>
+      <c r="DQ2" s="69"/>
+      <c r="DR2" s="69"/>
+      <c r="DS2" s="69"/>
+      <c r="DT2" s="69"/>
+      <c r="DU2" s="69"/>
+      <c r="DV2" s="69"/>
+      <c r="DW2" s="70"/>
     </row>
     <row r="3" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="116" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113"/>
+      <c r="AT3" s="113"/>
+      <c r="AU3" s="113"/>
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
+      <c r="AX3" s="113"/>
+      <c r="AY3" s="113"/>
+      <c r="AZ3" s="113"/>
+      <c r="BA3" s="113"/>
+      <c r="BB3" s="113"/>
+      <c r="BC3" s="113"/>
+      <c r="BD3" s="113"/>
+      <c r="BE3" s="113"/>
+      <c r="BF3" s="113"/>
+      <c r="BG3" s="113"/>
+      <c r="BH3" s="113"/>
+      <c r="BI3" s="113"/>
+      <c r="BJ3" s="113"/>
+      <c r="BK3" s="113"/>
+      <c r="BL3" s="113"/>
+      <c r="BM3" s="113"/>
+      <c r="BN3" s="113"/>
+      <c r="BO3" s="113"/>
+      <c r="BP3" s="113"/>
+      <c r="BQ3" s="113"/>
+      <c r="BR3" s="113"/>
+      <c r="BS3" s="113"/>
+      <c r="BT3" s="113"/>
+      <c r="BU3" s="113"/>
+      <c r="BV3" s="113"/>
+      <c r="BW3" s="113"/>
+      <c r="BX3" s="113"/>
+      <c r="BY3" s="113"/>
+      <c r="BZ3" s="113"/>
+      <c r="CA3" s="113"/>
+      <c r="CB3" s="113"/>
+      <c r="CC3" s="113"/>
+      <c r="CD3" s="113"/>
+      <c r="CE3" s="113"/>
+      <c r="CF3" s="113"/>
+      <c r="CG3" s="113"/>
+      <c r="CH3" s="113"/>
+      <c r="CI3" s="113"/>
+      <c r="CJ3" s="113"/>
+      <c r="CK3" s="113"/>
+      <c r="CL3" s="113"/>
+      <c r="CM3" s="113"/>
+      <c r="CN3" s="113"/>
+      <c r="CO3" s="113"/>
+      <c r="CP3" s="113"/>
+      <c r="CQ3" s="113"/>
+      <c r="CR3" s="113"/>
+      <c r="CS3" s="113"/>
+      <c r="CT3" s="113"/>
+      <c r="CU3" s="113"/>
+      <c r="CV3" s="113"/>
+      <c r="CW3" s="113"/>
+      <c r="CX3" s="113"/>
+      <c r="CY3" s="113"/>
+      <c r="CZ3" s="113"/>
+      <c r="DA3" s="113"/>
+      <c r="DB3" s="113"/>
+      <c r="DC3" s="113"/>
+      <c r="DD3" s="113"/>
+      <c r="DE3" s="113"/>
+      <c r="DF3" s="113"/>
+      <c r="DG3" s="113"/>
+      <c r="DH3" s="113"/>
+      <c r="DI3" s="113"/>
+      <c r="DJ3" s="113"/>
+      <c r="DK3" s="113"/>
+      <c r="DL3" s="113"/>
+      <c r="DM3" s="113"/>
+      <c r="DN3" s="113"/>
+      <c r="DO3" s="113"/>
+      <c r="DP3" s="113"/>
+      <c r="DQ3" s="113"/>
+      <c r="DR3" s="113"/>
+      <c r="DS3" s="113"/>
+      <c r="DT3" s="113"/>
+      <c r="DU3" s="113"/>
+      <c r="DV3" s="113"/>
+      <c r="DW3" s="114"/>
+    </row>
+    <row r="4" spans="2:127" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="127"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
+      <c r="AS4" s="75"/>
+      <c r="AT4" s="75"/>
+      <c r="AU4" s="75"/>
+      <c r="AV4" s="75"/>
+      <c r="AW4" s="75"/>
+      <c r="AX4" s="75"/>
+      <c r="AY4" s="75"/>
+      <c r="AZ4" s="75"/>
+      <c r="BA4" s="75"/>
+      <c r="BB4" s="75"/>
+      <c r="BC4" s="75"/>
+      <c r="BD4" s="75"/>
+      <c r="BE4" s="75"/>
+      <c r="BF4" s="75"/>
+      <c r="BG4" s="75"/>
+      <c r="BH4" s="75"/>
+      <c r="BI4" s="75"/>
+      <c r="BJ4" s="75"/>
+      <c r="BK4" s="75"/>
+      <c r="BL4" s="75"/>
+      <c r="BM4" s="75"/>
+      <c r="BN4" s="75"/>
+      <c r="BO4" s="75"/>
+      <c r="BP4" s="75"/>
+      <c r="BQ4" s="75"/>
+      <c r="BR4" s="75"/>
+      <c r="BS4" s="75"/>
+      <c r="BT4" s="75"/>
+      <c r="BU4" s="75"/>
+      <c r="BV4" s="75"/>
+      <c r="BW4" s="75"/>
+      <c r="BX4" s="75"/>
+      <c r="BY4" s="75"/>
+      <c r="BZ4" s="75"/>
+      <c r="CA4" s="75"/>
+      <c r="CB4" s="75"/>
+      <c r="CC4" s="75"/>
+      <c r="CD4" s="75"/>
+      <c r="CE4" s="75"/>
+      <c r="CF4" s="75"/>
+      <c r="CG4" s="75"/>
+      <c r="CH4" s="75"/>
+      <c r="CI4" s="75"/>
+      <c r="CJ4" s="75"/>
+      <c r="CK4" s="75"/>
+      <c r="CL4" s="75"/>
+      <c r="CM4" s="75"/>
+      <c r="CN4" s="75"/>
+      <c r="CO4" s="75"/>
+      <c r="CP4" s="75"/>
+      <c r="CQ4" s="75"/>
+      <c r="CR4" s="75"/>
+      <c r="CS4" s="75"/>
+      <c r="CT4" s="75"/>
+      <c r="CU4" s="75"/>
+      <c r="CV4" s="75"/>
+      <c r="CW4" s="75"/>
+      <c r="CX4" s="75"/>
+      <c r="CY4" s="75"/>
+      <c r="CZ4" s="75"/>
+      <c r="DA4" s="75"/>
+      <c r="DB4" s="75"/>
+      <c r="DC4" s="75"/>
+      <c r="DD4" s="75"/>
+      <c r="DE4" s="75"/>
+      <c r="DF4" s="75"/>
+      <c r="DG4" s="75"/>
+      <c r="DH4" s="75"/>
+      <c r="DI4" s="75"/>
+      <c r="DJ4" s="75"/>
+      <c r="DK4" s="75"/>
+      <c r="DL4" s="75"/>
+      <c r="DM4" s="75"/>
+      <c r="DN4" s="75"/>
+      <c r="DO4" s="75"/>
+      <c r="DP4" s="75"/>
+      <c r="DQ4" s="75"/>
+      <c r="DR4" s="75"/>
+      <c r="DS4" s="75"/>
+      <c r="DT4" s="75"/>
+      <c r="DU4" s="75"/>
+      <c r="DV4" s="75"/>
+      <c r="DW4" s="76"/>
+    </row>
+    <row r="5" spans="2:127" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="78"/>
+      <c r="AT5" s="78"/>
+      <c r="AU5" s="78"/>
+      <c r="AV5" s="78"/>
+      <c r="AW5" s="78"/>
+      <c r="AX5" s="78"/>
+      <c r="AY5" s="78"/>
+      <c r="AZ5" s="78"/>
+      <c r="BA5" s="78"/>
+      <c r="BB5" s="78"/>
+      <c r="BC5" s="78"/>
+      <c r="BD5" s="78"/>
+      <c r="BE5" s="78"/>
+      <c r="BF5" s="78"/>
+      <c r="BG5" s="78"/>
+      <c r="BH5" s="78"/>
+      <c r="BI5" s="78"/>
+      <c r="BJ5" s="78"/>
+      <c r="BK5" s="78"/>
+      <c r="BL5" s="78"/>
+      <c r="BM5" s="78"/>
+      <c r="BN5" s="78"/>
+      <c r="BO5" s="78"/>
+      <c r="BP5" s="78"/>
+      <c r="BQ5" s="78"/>
+      <c r="BR5" s="78"/>
+      <c r="BS5" s="78"/>
+      <c r="BT5" s="78"/>
+      <c r="BU5" s="78"/>
+      <c r="BV5" s="78"/>
+      <c r="BW5" s="78"/>
+      <c r="BX5" s="78"/>
+      <c r="BY5" s="78"/>
+      <c r="BZ5" s="78"/>
+      <c r="CA5" s="78"/>
+      <c r="CB5" s="78"/>
+      <c r="CC5" s="78"/>
+      <c r="CD5" s="78"/>
+      <c r="CE5" s="78"/>
+      <c r="CF5" s="78"/>
+      <c r="CG5" s="78"/>
+      <c r="CH5" s="78"/>
+      <c r="CI5" s="78"/>
+      <c r="CJ5" s="78"/>
+      <c r="CK5" s="78"/>
+      <c r="CL5" s="78"/>
+      <c r="CM5" s="78"/>
+      <c r="CN5" s="78"/>
+      <c r="CO5" s="78"/>
+      <c r="CP5" s="78"/>
+      <c r="CQ5" s="78"/>
+      <c r="CR5" s="78"/>
+      <c r="CS5" s="78"/>
+      <c r="CT5" s="78"/>
+      <c r="CU5" s="78"/>
+      <c r="CV5" s="78"/>
+      <c r="CW5" s="78"/>
+      <c r="CX5" s="78"/>
+      <c r="CY5" s="78"/>
+      <c r="CZ5" s="78"/>
+      <c r="DA5" s="78"/>
+      <c r="DB5" s="78"/>
+      <c r="DC5" s="78"/>
+      <c r="DD5" s="78"/>
+      <c r="DE5" s="78"/>
+      <c r="DF5" s="78"/>
+      <c r="DG5" s="78"/>
+      <c r="DH5" s="78"/>
+      <c r="DI5" s="78"/>
+      <c r="DJ5" s="78"/>
+      <c r="DK5" s="78"/>
+      <c r="DL5" s="78"/>
+      <c r="DM5" s="78"/>
+      <c r="DN5" s="78"/>
+      <c r="DO5" s="78"/>
+      <c r="DP5" s="78"/>
+      <c r="DQ5" s="78"/>
+      <c r="DR5" s="78"/>
+      <c r="DS5" s="78"/>
+      <c r="DT5" s="78"/>
+      <c r="DU5" s="78"/>
+      <c r="DV5" s="78"/>
+      <c r="DW5" s="79"/>
+    </row>
+    <row r="6" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="124"/>
+      <c r="W6" s="124"/>
+      <c r="X6" s="124"/>
+      <c r="Y6" s="124"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="117"/>
-      <c r="AM3" s="117"/>
-      <c r="AN3" s="117"/>
-      <c r="AO3" s="117"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="117"/>
-      <c r="AR3" s="117"/>
-      <c r="AS3" s="117"/>
-      <c r="AT3" s="117"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="117"/>
-      <c r="AW3" s="117"/>
-      <c r="AX3" s="117"/>
-      <c r="AY3" s="117"/>
-      <c r="AZ3" s="117"/>
-      <c r="BA3" s="117"/>
-      <c r="BB3" s="117"/>
-      <c r="BC3" s="117"/>
-      <c r="BD3" s="117"/>
-      <c r="BE3" s="117"/>
-      <c r="BF3" s="117"/>
-      <c r="BG3" s="117"/>
-      <c r="BH3" s="117"/>
-      <c r="BI3" s="117"/>
-      <c r="BJ3" s="117"/>
-      <c r="BK3" s="117"/>
-      <c r="BL3" s="117"/>
-      <c r="BM3" s="117"/>
-      <c r="BN3" s="117"/>
-      <c r="BO3" s="117"/>
-      <c r="BP3" s="117"/>
-      <c r="BQ3" s="117"/>
-      <c r="BR3" s="117"/>
-      <c r="BS3" s="117"/>
-      <c r="BT3" s="117"/>
-      <c r="BU3" s="117"/>
-      <c r="BV3" s="117"/>
-      <c r="BW3" s="117"/>
-      <c r="BX3" s="117"/>
-      <c r="BY3" s="117"/>
-      <c r="BZ3" s="117"/>
-      <c r="CA3" s="117"/>
-      <c r="CB3" s="117"/>
-      <c r="CC3" s="117"/>
-      <c r="CD3" s="117"/>
-      <c r="CE3" s="117"/>
-      <c r="CF3" s="117"/>
-      <c r="CG3" s="117"/>
-      <c r="CH3" s="117"/>
-      <c r="CI3" s="117"/>
-      <c r="CJ3" s="117"/>
-      <c r="CK3" s="117"/>
-      <c r="CL3" s="117"/>
-      <c r="CM3" s="117"/>
-      <c r="CN3" s="117"/>
-      <c r="CO3" s="117"/>
-      <c r="CP3" s="117"/>
-      <c r="CQ3" s="117"/>
-      <c r="CR3" s="117"/>
-      <c r="CS3" s="117"/>
-      <c r="CT3" s="117"/>
-      <c r="CU3" s="117"/>
-      <c r="CV3" s="117"/>
-      <c r="CW3" s="117"/>
-      <c r="CX3" s="117"/>
-      <c r="CY3" s="117"/>
-      <c r="CZ3" s="117"/>
-      <c r="DA3" s="117"/>
-      <c r="DB3" s="117"/>
-      <c r="DC3" s="117"/>
-      <c r="DD3" s="117"/>
-      <c r="DE3" s="117"/>
-      <c r="DF3" s="117"/>
-      <c r="DG3" s="117"/>
-      <c r="DH3" s="117"/>
-      <c r="DI3" s="117"/>
-      <c r="DJ3" s="117"/>
-      <c r="DK3" s="117"/>
-      <c r="DL3" s="117"/>
-      <c r="DM3" s="117"/>
-      <c r="DN3" s="117"/>
-      <c r="DO3" s="117"/>
-      <c r="DP3" s="117"/>
-      <c r="DQ3" s="117"/>
-      <c r="DR3" s="117"/>
-      <c r="DS3" s="117"/>
-      <c r="DT3" s="117"/>
-      <c r="DU3" s="117"/>
-      <c r="DV3" s="117"/>
-      <c r="DW3" s="118"/>
-    </row>
-    <row r="4" spans="2:127" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="65"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78"/>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="78"/>
-      <c r="AT4" s="78"/>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="78"/>
-      <c r="AZ4" s="78"/>
-      <c r="BA4" s="78"/>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="78"/>
-      <c r="BI4" s="78"/>
-      <c r="BJ4" s="78"/>
-      <c r="BK4" s="78"/>
-      <c r="BL4" s="78"/>
-      <c r="BM4" s="78"/>
-      <c r="BN4" s="78"/>
-      <c r="BO4" s="78"/>
-      <c r="BP4" s="78"/>
-      <c r="BQ4" s="78"/>
-      <c r="BR4" s="78"/>
-      <c r="BS4" s="78"/>
-      <c r="BT4" s="78"/>
-      <c r="BU4" s="78"/>
-      <c r="BV4" s="78"/>
-      <c r="BW4" s="78"/>
-      <c r="BX4" s="78"/>
-      <c r="BY4" s="78"/>
-      <c r="BZ4" s="78"/>
-      <c r="CA4" s="78"/>
-      <c r="CB4" s="78"/>
-      <c r="CC4" s="78"/>
-      <c r="CD4" s="78"/>
-      <c r="CE4" s="78"/>
-      <c r="CF4" s="78"/>
-      <c r="CG4" s="78"/>
-      <c r="CH4" s="78"/>
-      <c r="CI4" s="78"/>
-      <c r="CJ4" s="78"/>
-      <c r="CK4" s="78"/>
-      <c r="CL4" s="78"/>
-      <c r="CM4" s="78"/>
-      <c r="CN4" s="78"/>
-      <c r="CO4" s="78"/>
-      <c r="CP4" s="78"/>
-      <c r="CQ4" s="78"/>
-      <c r="CR4" s="78"/>
-      <c r="CS4" s="78"/>
-      <c r="CT4" s="78"/>
-      <c r="CU4" s="78"/>
-      <c r="CV4" s="78"/>
-      <c r="CW4" s="78"/>
-      <c r="CX4" s="78"/>
-      <c r="CY4" s="78"/>
-      <c r="CZ4" s="78"/>
-      <c r="DA4" s="78"/>
-      <c r="DB4" s="78"/>
-      <c r="DC4" s="78"/>
-      <c r="DD4" s="78"/>
-      <c r="DE4" s="78"/>
-      <c r="DF4" s="78"/>
-      <c r="DG4" s="78"/>
-      <c r="DH4" s="78"/>
-      <c r="DI4" s="78"/>
-      <c r="DJ4" s="78"/>
-      <c r="DK4" s="78"/>
-      <c r="DL4" s="78"/>
-      <c r="DM4" s="78"/>
-      <c r="DN4" s="78"/>
-      <c r="DO4" s="78"/>
-      <c r="DP4" s="78"/>
-      <c r="DQ4" s="78"/>
-      <c r="DR4" s="78"/>
-      <c r="DS4" s="78"/>
-      <c r="DT4" s="78"/>
-      <c r="DU4" s="78"/>
-      <c r="DV4" s="78"/>
-      <c r="DW4" s="79"/>
-    </row>
-    <row r="5" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="65"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="93" t="s">
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="78"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="78"/>
+      <c r="AU6" s="78"/>
+      <c r="AV6" s="78"/>
+      <c r="AW6" s="78"/>
+      <c r="AX6" s="78"/>
+      <c r="AY6" s="78"/>
+      <c r="AZ6" s="78"/>
+      <c r="BA6" s="78"/>
+      <c r="BB6" s="78"/>
+      <c r="BC6" s="78"/>
+      <c r="BD6" s="78"/>
+      <c r="BE6" s="78"/>
+      <c r="BF6" s="78"/>
+      <c r="BG6" s="78"/>
+      <c r="BH6" s="78"/>
+      <c r="BI6" s="78"/>
+      <c r="BJ6" s="78"/>
+      <c r="BK6" s="78"/>
+      <c r="BL6" s="78"/>
+      <c r="BM6" s="78"/>
+      <c r="BN6" s="78"/>
+      <c r="BO6" s="78"/>
+      <c r="BP6" s="78"/>
+      <c r="BQ6" s="78"/>
+      <c r="BR6" s="78"/>
+      <c r="BS6" s="78"/>
+      <c r="BT6" s="78"/>
+      <c r="BU6" s="78"/>
+      <c r="BV6" s="78"/>
+      <c r="BW6" s="78"/>
+      <c r="BX6" s="78"/>
+      <c r="BY6" s="78"/>
+      <c r="BZ6" s="78"/>
+      <c r="CA6" s="78"/>
+      <c r="CB6" s="78"/>
+      <c r="CC6" s="78"/>
+      <c r="CD6" s="78"/>
+      <c r="CE6" s="78"/>
+      <c r="CF6" s="78"/>
+      <c r="CG6" s="78"/>
+      <c r="CH6" s="78"/>
+      <c r="CI6" s="78"/>
+      <c r="CJ6" s="78"/>
+      <c r="CK6" s="78"/>
+      <c r="CL6" s="78"/>
+      <c r="CM6" s="78"/>
+      <c r="CN6" s="78"/>
+      <c r="CO6" s="78"/>
+      <c r="CP6" s="78"/>
+      <c r="CQ6" s="78"/>
+      <c r="CR6" s="78"/>
+      <c r="CS6" s="78"/>
+      <c r="CT6" s="78"/>
+      <c r="CU6" s="78"/>
+      <c r="CV6" s="78"/>
+      <c r="CW6" s="78"/>
+      <c r="CX6" s="78"/>
+      <c r="CY6" s="78"/>
+      <c r="CZ6" s="78"/>
+      <c r="DA6" s="78"/>
+      <c r="DB6" s="78"/>
+      <c r="DC6" s="78"/>
+      <c r="DD6" s="78"/>
+      <c r="DE6" s="78"/>
+      <c r="DF6" s="78"/>
+      <c r="DG6" s="78"/>
+      <c r="DH6" s="78"/>
+      <c r="DI6" s="78"/>
+      <c r="DJ6" s="78"/>
+      <c r="DK6" s="78"/>
+      <c r="DL6" s="78"/>
+      <c r="DM6" s="78"/>
+      <c r="DN6" s="78"/>
+      <c r="DO6" s="78"/>
+      <c r="DP6" s="78"/>
+      <c r="DQ6" s="78"/>
+      <c r="DR6" s="78"/>
+      <c r="DS6" s="78"/>
+      <c r="DT6" s="78"/>
+      <c r="DU6" s="78"/>
+      <c r="DV6" s="78"/>
+      <c r="DW6" s="79"/>
+    </row>
+    <row r="7" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
-      <c r="AF5" s="81"/>
-      <c r="AG5" s="81"/>
-      <c r="AH5" s="81"/>
-      <c r="AI5" s="81"/>
-      <c r="AJ5" s="81"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="81"/>
-      <c r="AM5" s="81"/>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="81"/>
-      <c r="AP5" s="81"/>
-      <c r="AQ5" s="81"/>
-      <c r="AR5" s="81"/>
-      <c r="AS5" s="81"/>
-      <c r="AT5" s="81"/>
-      <c r="AU5" s="81"/>
-      <c r="AV5" s="81"/>
-      <c r="AW5" s="81"/>
-      <c r="AX5" s="81"/>
-      <c r="AY5" s="81"/>
-      <c r="AZ5" s="81"/>
-      <c r="BA5" s="81"/>
-      <c r="BB5" s="81"/>
-      <c r="BC5" s="81"/>
-      <c r="BD5" s="81"/>
-      <c r="BE5" s="81"/>
-      <c r="BF5" s="81"/>
-      <c r="BG5" s="81"/>
-      <c r="BH5" s="81"/>
-      <c r="BI5" s="81"/>
-      <c r="BJ5" s="81"/>
-      <c r="BK5" s="81"/>
-      <c r="BL5" s="81"/>
-      <c r="BM5" s="81"/>
-      <c r="BN5" s="81"/>
-      <c r="BO5" s="81"/>
-      <c r="BP5" s="81"/>
-      <c r="BQ5" s="81"/>
-      <c r="BR5" s="81"/>
-      <c r="BS5" s="81"/>
-      <c r="BT5" s="81"/>
-      <c r="BU5" s="81"/>
-      <c r="BV5" s="81"/>
-      <c r="BW5" s="81"/>
-      <c r="BX5" s="81"/>
-      <c r="BY5" s="81"/>
-      <c r="BZ5" s="81"/>
-      <c r="CA5" s="81"/>
-      <c r="CB5" s="81"/>
-      <c r="CC5" s="81"/>
-      <c r="CD5" s="81"/>
-      <c r="CE5" s="81"/>
-      <c r="CF5" s="81"/>
-      <c r="CG5" s="81"/>
-      <c r="CH5" s="81"/>
-      <c r="CI5" s="81"/>
-      <c r="CJ5" s="81"/>
-      <c r="CK5" s="81"/>
-      <c r="CL5" s="81"/>
-      <c r="CM5" s="81"/>
-      <c r="CN5" s="81"/>
-      <c r="CO5" s="81"/>
-      <c r="CP5" s="81"/>
-      <c r="CQ5" s="81"/>
-      <c r="CR5" s="81"/>
-      <c r="CS5" s="81"/>
-      <c r="CT5" s="81"/>
-      <c r="CU5" s="81"/>
-      <c r="CV5" s="81"/>
-      <c r="CW5" s="81"/>
-      <c r="CX5" s="81"/>
-      <c r="CY5" s="81"/>
-      <c r="CZ5" s="81"/>
-      <c r="DA5" s="81"/>
-      <c r="DB5" s="81"/>
-      <c r="DC5" s="81"/>
-      <c r="DD5" s="81"/>
-      <c r="DE5" s="81"/>
-      <c r="DF5" s="81"/>
-      <c r="DG5" s="81"/>
-      <c r="DH5" s="81"/>
-      <c r="DI5" s="81"/>
-      <c r="DJ5" s="81"/>
-      <c r="DK5" s="81"/>
-      <c r="DL5" s="81"/>
-      <c r="DM5" s="81"/>
-      <c r="DN5" s="81"/>
-      <c r="DO5" s="81"/>
-      <c r="DP5" s="81"/>
-      <c r="DQ5" s="81"/>
-      <c r="DR5" s="81"/>
-      <c r="DS5" s="81"/>
-      <c r="DT5" s="81"/>
-      <c r="DU5" s="81"/>
-      <c r="DV5" s="81"/>
-      <c r="DW5" s="82"/>
-    </row>
-    <row r="6" spans="2:127" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="121" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="122"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="124" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="124" t="s">
+      <c r="G7" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="81"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="81"/>
-      <c r="AI6" s="81"/>
-      <c r="AJ6" s="81"/>
-      <c r="AK6" s="81"/>
-      <c r="AL6" s="81"/>
-      <c r="AM6" s="81"/>
-      <c r="AN6" s="81"/>
-      <c r="AO6" s="81"/>
-      <c r="AP6" s="81"/>
-      <c r="AQ6" s="81"/>
-      <c r="AR6" s="81"/>
-      <c r="AS6" s="81"/>
-      <c r="AT6" s="81"/>
-      <c r="AU6" s="81"/>
-      <c r="AV6" s="81"/>
-      <c r="AW6" s="81"/>
-      <c r="AX6" s="81"/>
-      <c r="AY6" s="81"/>
-      <c r="AZ6" s="81"/>
-      <c r="BA6" s="81"/>
-      <c r="BB6" s="81"/>
-      <c r="BC6" s="81"/>
-      <c r="BD6" s="81"/>
-      <c r="BE6" s="81"/>
-      <c r="BF6" s="81"/>
-      <c r="BG6" s="81"/>
-      <c r="BH6" s="81"/>
-      <c r="BI6" s="81"/>
-      <c r="BJ6" s="81"/>
-      <c r="BK6" s="81"/>
-      <c r="BL6" s="81"/>
-      <c r="BM6" s="81"/>
-      <c r="BN6" s="81"/>
-      <c r="BO6" s="81"/>
-      <c r="BP6" s="81"/>
-      <c r="BQ6" s="81"/>
-      <c r="BR6" s="81"/>
-      <c r="BS6" s="81"/>
-      <c r="BT6" s="81"/>
-      <c r="BU6" s="81"/>
-      <c r="BV6" s="81"/>
-      <c r="BW6" s="81"/>
-      <c r="BX6" s="81"/>
-      <c r="BY6" s="81"/>
-      <c r="BZ6" s="81"/>
-      <c r="CA6" s="81"/>
-      <c r="CB6" s="81"/>
-      <c r="CC6" s="81"/>
-      <c r="CD6" s="81"/>
-      <c r="CE6" s="81"/>
-      <c r="CF6" s="81"/>
-      <c r="CG6" s="81"/>
-      <c r="CH6" s="81"/>
-      <c r="CI6" s="81"/>
-      <c r="CJ6" s="81"/>
-      <c r="CK6" s="81"/>
-      <c r="CL6" s="81"/>
-      <c r="CM6" s="81"/>
-      <c r="CN6" s="81"/>
-      <c r="CO6" s="81"/>
-      <c r="CP6" s="81"/>
-      <c r="CQ6" s="81"/>
-      <c r="CR6" s="81"/>
-      <c r="CS6" s="81"/>
-      <c r="CT6" s="81"/>
-      <c r="CU6" s="81"/>
-      <c r="CV6" s="81"/>
-      <c r="CW6" s="81"/>
-      <c r="CX6" s="81"/>
-      <c r="CY6" s="81"/>
-      <c r="CZ6" s="81"/>
-      <c r="DA6" s="81"/>
-      <c r="DB6" s="81"/>
-      <c r="DC6" s="81"/>
-      <c r="DD6" s="81"/>
-      <c r="DE6" s="81"/>
-      <c r="DF6" s="81"/>
-      <c r="DG6" s="81"/>
-      <c r="DH6" s="81"/>
-      <c r="DI6" s="81"/>
-      <c r="DJ6" s="81"/>
-      <c r="DK6" s="81"/>
-      <c r="DL6" s="81"/>
-      <c r="DM6" s="81"/>
-      <c r="DN6" s="81"/>
-      <c r="DO6" s="81"/>
-      <c r="DP6" s="81"/>
-      <c r="DQ6" s="81"/>
-      <c r="DR6" s="81"/>
-      <c r="DS6" s="81"/>
-      <c r="DT6" s="81"/>
-      <c r="DU6" s="81"/>
-      <c r="DV6" s="81"/>
-      <c r="DW6" s="82"/>
-    </row>
-    <row r="7" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="63" t="s">
+      <c r="S7" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="U7" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="62" t="s">
+      <c r="W7" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="X7" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="62" t="s">
+      <c r="Y7" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="62" t="s">
+      <c r="AA7" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="U7" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="W7" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="X7" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y7" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA7" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="84"/>
-      <c r="AL7" s="84"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="84"/>
-      <c r="AO7" s="84"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="84"/>
-      <c r="AS7" s="84"/>
-      <c r="AT7" s="84"/>
-      <c r="AU7" s="84"/>
-      <c r="AV7" s="84"/>
-      <c r="AW7" s="84"/>
-      <c r="AX7" s="84"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="84"/>
-      <c r="BA7" s="84"/>
-      <c r="BB7" s="84"/>
-      <c r="BC7" s="84"/>
-      <c r="BD7" s="84"/>
-      <c r="BE7" s="84"/>
-      <c r="BF7" s="84"/>
-      <c r="BG7" s="84"/>
-      <c r="BH7" s="84"/>
-      <c r="BI7" s="84"/>
-      <c r="BJ7" s="84"/>
-      <c r="BK7" s="84"/>
-      <c r="BL7" s="84"/>
-      <c r="BM7" s="84"/>
-      <c r="BN7" s="84"/>
-      <c r="BO7" s="84"/>
-      <c r="BP7" s="84"/>
-      <c r="BQ7" s="84"/>
-      <c r="BR7" s="84"/>
-      <c r="BS7" s="84"/>
-      <c r="BT7" s="84"/>
-      <c r="BU7" s="84"/>
-      <c r="BV7" s="84"/>
-      <c r="BW7" s="84"/>
-      <c r="BX7" s="84"/>
-      <c r="BY7" s="84"/>
-      <c r="BZ7" s="84"/>
-      <c r="CA7" s="84"/>
-      <c r="CB7" s="84"/>
-      <c r="CC7" s="84"/>
-      <c r="CD7" s="84"/>
-      <c r="CE7" s="84"/>
-      <c r="CF7" s="84"/>
-      <c r="CG7" s="84"/>
-      <c r="CH7" s="84"/>
-      <c r="CI7" s="84"/>
-      <c r="CJ7" s="84"/>
-      <c r="CK7" s="84"/>
-      <c r="CL7" s="84"/>
-      <c r="CM7" s="84"/>
-      <c r="CN7" s="84"/>
-      <c r="CO7" s="84"/>
-      <c r="CP7" s="84"/>
-      <c r="CQ7" s="84"/>
-      <c r="CR7" s="84"/>
-      <c r="CS7" s="84"/>
-      <c r="CT7" s="84"/>
-      <c r="CU7" s="84"/>
-      <c r="CV7" s="84"/>
-      <c r="CW7" s="84"/>
-      <c r="CX7" s="84"/>
-      <c r="CY7" s="84"/>
-      <c r="CZ7" s="84"/>
-      <c r="DA7" s="84"/>
-      <c r="DB7" s="84"/>
-      <c r="DC7" s="84"/>
-      <c r="DD7" s="84"/>
-      <c r="DE7" s="84"/>
-      <c r="DF7" s="84"/>
-      <c r="DG7" s="84"/>
-      <c r="DH7" s="84"/>
-      <c r="DI7" s="84"/>
-      <c r="DJ7" s="84"/>
-      <c r="DK7" s="84"/>
-      <c r="DL7" s="84"/>
-      <c r="DM7" s="84"/>
-      <c r="DN7" s="84"/>
-      <c r="DO7" s="84"/>
-      <c r="DP7" s="84"/>
-      <c r="DQ7" s="84"/>
-      <c r="DR7" s="84"/>
-      <c r="DS7" s="84"/>
-      <c r="DT7" s="84"/>
-      <c r="DU7" s="84"/>
-      <c r="DV7" s="84"/>
-      <c r="DW7" s="85"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="81"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="81"/>
+      <c r="AM7" s="81"/>
+      <c r="AN7" s="81"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="81"/>
+      <c r="AQ7" s="81"/>
+      <c r="AR7" s="81"/>
+      <c r="AS7" s="81"/>
+      <c r="AT7" s="81"/>
+      <c r="AU7" s="81"/>
+      <c r="AV7" s="81"/>
+      <c r="AW7" s="81"/>
+      <c r="AX7" s="81"/>
+      <c r="AY7" s="81"/>
+      <c r="AZ7" s="81"/>
+      <c r="BA7" s="81"/>
+      <c r="BB7" s="81"/>
+      <c r="BC7" s="81"/>
+      <c r="BD7" s="81"/>
+      <c r="BE7" s="81"/>
+      <c r="BF7" s="81"/>
+      <c r="BG7" s="81"/>
+      <c r="BH7" s="81"/>
+      <c r="BI7" s="81"/>
+      <c r="BJ7" s="81"/>
+      <c r="BK7" s="81"/>
+      <c r="BL7" s="81"/>
+      <c r="BM7" s="81"/>
+      <c r="BN7" s="81"/>
+      <c r="BO7" s="81"/>
+      <c r="BP7" s="81"/>
+      <c r="BQ7" s="81"/>
+      <c r="BR7" s="81"/>
+      <c r="BS7" s="81"/>
+      <c r="BT7" s="81"/>
+      <c r="BU7" s="81"/>
+      <c r="BV7" s="81"/>
+      <c r="BW7" s="81"/>
+      <c r="BX7" s="81"/>
+      <c r="BY7" s="81"/>
+      <c r="BZ7" s="81"/>
+      <c r="CA7" s="81"/>
+      <c r="CB7" s="81"/>
+      <c r="CC7" s="81"/>
+      <c r="CD7" s="81"/>
+      <c r="CE7" s="81"/>
+      <c r="CF7" s="81"/>
+      <c r="CG7" s="81"/>
+      <c r="CH7" s="81"/>
+      <c r="CI7" s="81"/>
+      <c r="CJ7" s="81"/>
+      <c r="CK7" s="81"/>
+      <c r="CL7" s="81"/>
+      <c r="CM7" s="81"/>
+      <c r="CN7" s="81"/>
+      <c r="CO7" s="81"/>
+      <c r="CP7" s="81"/>
+      <c r="CQ7" s="81"/>
+      <c r="CR7" s="81"/>
+      <c r="CS7" s="81"/>
+      <c r="CT7" s="81"/>
+      <c r="CU7" s="81"/>
+      <c r="CV7" s="81"/>
+      <c r="CW7" s="81"/>
+      <c r="CX7" s="81"/>
+      <c r="CY7" s="81"/>
+      <c r="CZ7" s="81"/>
+      <c r="DA7" s="81"/>
+      <c r="DB7" s="81"/>
+      <c r="DC7" s="81"/>
+      <c r="DD7" s="81"/>
+      <c r="DE7" s="81"/>
+      <c r="DF7" s="81"/>
+      <c r="DG7" s="81"/>
+      <c r="DH7" s="81"/>
+      <c r="DI7" s="81"/>
+      <c r="DJ7" s="81"/>
+      <c r="DK7" s="81"/>
+      <c r="DL7" s="81"/>
+      <c r="DM7" s="81"/>
+      <c r="DN7" s="81"/>
+      <c r="DO7" s="81"/>
+      <c r="DP7" s="81"/>
+      <c r="DQ7" s="81"/>
+      <c r="DR7" s="81"/>
+      <c r="DS7" s="81"/>
+      <c r="DT7" s="81"/>
+      <c r="DU7" s="81"/>
+      <c r="DV7" s="81"/>
+      <c r="DW7" s="82"/>
     </row>
     <row r="8" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
-      <c r="C8" s="101"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="14"/>
       <c r="E8" s="16"/>
       <c r="F8" s="38"/>
@@ -2946,123 +2922,123 @@
       <c r="L8" s="42"/>
       <c r="M8" s="38"/>
       <c r="N8" s="40"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
       <c r="R8" s="40"/>
-      <c r="S8" s="55"/>
+      <c r="S8" s="54"/>
       <c r="T8" s="44"/>
       <c r="U8" s="40"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
       <c r="Y8" s="40"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="87"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="87"/>
-      <c r="AT8" s="87"/>
-      <c r="AU8" s="87"/>
-      <c r="AV8" s="87"/>
-      <c r="AW8" s="87"/>
-      <c r="AX8" s="87"/>
-      <c r="AY8" s="87"/>
-      <c r="AZ8" s="87"/>
-      <c r="BA8" s="87"/>
-      <c r="BB8" s="87"/>
-      <c r="BC8" s="87"/>
-      <c r="BD8" s="87"/>
-      <c r="BE8" s="87"/>
-      <c r="BF8" s="87"/>
-      <c r="BG8" s="87"/>
-      <c r="BH8" s="87"/>
-      <c r="BI8" s="87"/>
-      <c r="BJ8" s="87"/>
-      <c r="BK8" s="87"/>
-      <c r="BL8" s="87"/>
-      <c r="BM8" s="87"/>
-      <c r="BN8" s="87"/>
-      <c r="BO8" s="87"/>
-      <c r="BP8" s="87"/>
-      <c r="BQ8" s="87"/>
-      <c r="BR8" s="87"/>
-      <c r="BS8" s="87"/>
-      <c r="BT8" s="87"/>
-      <c r="BU8" s="87"/>
-      <c r="BV8" s="87"/>
-      <c r="BW8" s="87"/>
-      <c r="BX8" s="87"/>
-      <c r="BY8" s="87"/>
-      <c r="BZ8" s="87"/>
-      <c r="CA8" s="87"/>
-      <c r="CB8" s="87"/>
-      <c r="CC8" s="87"/>
-      <c r="CD8" s="87"/>
-      <c r="CE8" s="87"/>
-      <c r="CF8" s="87"/>
-      <c r="CG8" s="87"/>
-      <c r="CH8" s="87"/>
-      <c r="CI8" s="87"/>
-      <c r="CJ8" s="87"/>
-      <c r="CK8" s="87"/>
-      <c r="CL8" s="87"/>
-      <c r="CM8" s="87"/>
-      <c r="CN8" s="87"/>
-      <c r="CO8" s="87"/>
-      <c r="CP8" s="87"/>
-      <c r="CQ8" s="87"/>
-      <c r="CR8" s="87"/>
-      <c r="CS8" s="87"/>
-      <c r="CT8" s="87"/>
-      <c r="CU8" s="87"/>
-      <c r="CV8" s="87"/>
-      <c r="CW8" s="87"/>
-      <c r="CX8" s="87"/>
-      <c r="CY8" s="87"/>
-      <c r="CZ8" s="87"/>
-      <c r="DA8" s="87"/>
-      <c r="DB8" s="87"/>
-      <c r="DC8" s="87"/>
-      <c r="DD8" s="87"/>
-      <c r="DE8" s="87"/>
-      <c r="DF8" s="87"/>
-      <c r="DG8" s="87"/>
-      <c r="DH8" s="87"/>
-      <c r="DI8" s="87"/>
-      <c r="DJ8" s="87"/>
-      <c r="DK8" s="87"/>
-      <c r="DL8" s="87"/>
-      <c r="DM8" s="87"/>
-      <c r="DN8" s="87"/>
-      <c r="DO8" s="87"/>
-      <c r="DP8" s="87"/>
-      <c r="DQ8" s="87"/>
-      <c r="DR8" s="87"/>
-      <c r="DS8" s="87"/>
-      <c r="DT8" s="87"/>
-      <c r="DU8" s="87"/>
-      <c r="DV8" s="87"/>
-      <c r="DW8" s="88"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="84"/>
+      <c r="AH8" s="84"/>
+      <c r="AI8" s="84"/>
+      <c r="AJ8" s="84"/>
+      <c r="AK8" s="84"/>
+      <c r="AL8" s="84"/>
+      <c r="AM8" s="84"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="84"/>
+      <c r="AP8" s="84"/>
+      <c r="AQ8" s="84"/>
+      <c r="AR8" s="84"/>
+      <c r="AS8" s="84"/>
+      <c r="AT8" s="84"/>
+      <c r="AU8" s="84"/>
+      <c r="AV8" s="84"/>
+      <c r="AW8" s="84"/>
+      <c r="AX8" s="84"/>
+      <c r="AY8" s="84"/>
+      <c r="AZ8" s="84"/>
+      <c r="BA8" s="84"/>
+      <c r="BB8" s="84"/>
+      <c r="BC8" s="84"/>
+      <c r="BD8" s="84"/>
+      <c r="BE8" s="84"/>
+      <c r="BF8" s="84"/>
+      <c r="BG8" s="84"/>
+      <c r="BH8" s="84"/>
+      <c r="BI8" s="84"/>
+      <c r="BJ8" s="84"/>
+      <c r="BK8" s="84"/>
+      <c r="BL8" s="84"/>
+      <c r="BM8" s="84"/>
+      <c r="BN8" s="84"/>
+      <c r="BO8" s="84"/>
+      <c r="BP8" s="84"/>
+      <c r="BQ8" s="84"/>
+      <c r="BR8" s="84"/>
+      <c r="BS8" s="84"/>
+      <c r="BT8" s="84"/>
+      <c r="BU8" s="84"/>
+      <c r="BV8" s="84"/>
+      <c r="BW8" s="84"/>
+      <c r="BX8" s="84"/>
+      <c r="BY8" s="84"/>
+      <c r="BZ8" s="84"/>
+      <c r="CA8" s="84"/>
+      <c r="CB8" s="84"/>
+      <c r="CC8" s="84"/>
+      <c r="CD8" s="84"/>
+      <c r="CE8" s="84"/>
+      <c r="CF8" s="84"/>
+      <c r="CG8" s="84"/>
+      <c r="CH8" s="84"/>
+      <c r="CI8" s="84"/>
+      <c r="CJ8" s="84"/>
+      <c r="CK8" s="84"/>
+      <c r="CL8" s="84"/>
+      <c r="CM8" s="84"/>
+      <c r="CN8" s="84"/>
+      <c r="CO8" s="84"/>
+      <c r="CP8" s="84"/>
+      <c r="CQ8" s="84"/>
+      <c r="CR8" s="84"/>
+      <c r="CS8" s="84"/>
+      <c r="CT8" s="84"/>
+      <c r="CU8" s="84"/>
+      <c r="CV8" s="84"/>
+      <c r="CW8" s="84"/>
+      <c r="CX8" s="84"/>
+      <c r="CY8" s="84"/>
+      <c r="CZ8" s="84"/>
+      <c r="DA8" s="84"/>
+      <c r="DB8" s="84"/>
+      <c r="DC8" s="84"/>
+      <c r="DD8" s="84"/>
+      <c r="DE8" s="84"/>
+      <c r="DF8" s="84"/>
+      <c r="DG8" s="84"/>
+      <c r="DH8" s="84"/>
+      <c r="DI8" s="84"/>
+      <c r="DJ8" s="84"/>
+      <c r="DK8" s="84"/>
+      <c r="DL8" s="84"/>
+      <c r="DM8" s="84"/>
+      <c r="DN8" s="84"/>
+      <c r="DO8" s="84"/>
+      <c r="DP8" s="84"/>
+      <c r="DQ8" s="84"/>
+      <c r="DR8" s="84"/>
+      <c r="DS8" s="84"/>
+      <c r="DT8" s="84"/>
+      <c r="DU8" s="84"/>
+      <c r="DV8" s="84"/>
+      <c r="DW8" s="85"/>
     </row>
     <row r="9" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="102"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="12"/>
       <c r="E9" s="10"/>
       <c r="F9" s="39"/>
@@ -3074,22 +3050,22 @@
       <c r="L9" s="43"/>
       <c r="M9" s="39"/>
       <c r="N9" s="41"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
       <c r="R9" s="41"/>
-      <c r="S9" s="56"/>
+      <c r="S9" s="55"/>
       <c r="T9" s="45"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
       <c r="Y9" s="41"/>
-      <c r="Z9" s="69"/>
+      <c r="Z9" s="67"/>
     </row>
     <row r="10" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="102"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="12"/>
       <c r="E10" s="10"/>
       <c r="F10" s="39"/>
@@ -3101,22 +3077,22 @@
       <c r="L10" s="43"/>
       <c r="M10" s="39"/>
       <c r="N10" s="41"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
       <c r="R10" s="41"/>
-      <c r="S10" s="56"/>
+      <c r="S10" s="55"/>
       <c r="T10" s="45"/>
       <c r="U10" s="41"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
       <c r="Y10" s="41"/>
-      <c r="Z10" s="69"/>
+      <c r="Z10" s="67"/>
     </row>
     <row r="11" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="102"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="12"/>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
@@ -3128,22 +3104,22 @@
       <c r="L11" s="43"/>
       <c r="M11" s="39"/>
       <c r="N11" s="41"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
       <c r="R11" s="41"/>
-      <c r="S11" s="56"/>
+      <c r="S11" s="55"/>
       <c r="T11" s="45"/>
       <c r="U11" s="41"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
       <c r="Y11" s="41"/>
-      <c r="Z11" s="69"/>
+      <c r="Z11" s="67"/>
     </row>
     <row r="12" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="102"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="12"/>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
@@ -3155,22 +3131,22 @@
       <c r="L12" s="43"/>
       <c r="M12" s="39"/>
       <c r="N12" s="41"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
       <c r="R12" s="41"/>
-      <c r="S12" s="56"/>
+      <c r="S12" s="55"/>
       <c r="T12" s="45"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
       <c r="Y12" s="41"/>
-      <c r="Z12" s="69"/>
+      <c r="Z12" s="67"/>
     </row>
     <row r="13" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="102"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="12"/>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -3182,22 +3158,22 @@
       <c r="L13" s="43"/>
       <c r="M13" s="39"/>
       <c r="N13" s="41"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
       <c r="R13" s="41"/>
-      <c r="S13" s="56"/>
+      <c r="S13" s="55"/>
       <c r="T13" s="45"/>
       <c r="U13" s="41"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
       <c r="Y13" s="41"/>
-      <c r="Z13" s="69"/>
+      <c r="Z13" s="67"/>
     </row>
     <row r="14" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="102"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="12"/>
       <c r="E14" s="10"/>
       <c r="F14" s="39"/>
@@ -3209,22 +3185,22 @@
       <c r="L14" s="43"/>
       <c r="M14" s="39"/>
       <c r="N14" s="41"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
       <c r="R14" s="41"/>
-      <c r="S14" s="56"/>
+      <c r="S14" s="55"/>
       <c r="T14" s="45"/>
       <c r="U14" s="41"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
       <c r="Y14" s="41"/>
-      <c r="Z14" s="69"/>
+      <c r="Z14" s="67"/>
     </row>
     <row r="15" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="C15" s="102"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="12"/>
       <c r="E15" s="10"/>
       <c r="F15" s="39"/>
@@ -3236,22 +3212,22 @@
       <c r="L15" s="43"/>
       <c r="M15" s="39"/>
       <c r="N15" s="41"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
       <c r="R15" s="41"/>
-      <c r="S15" s="56"/>
+      <c r="S15" s="55"/>
       <c r="T15" s="45"/>
       <c r="U15" s="41"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
       <c r="Y15" s="41"/>
-      <c r="Z15" s="69"/>
+      <c r="Z15" s="67"/>
     </row>
     <row r="16" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="102"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="12"/>
       <c r="E16" s="10"/>
       <c r="F16" s="39"/>
@@ -3263,22 +3239,22 @@
       <c r="L16" s="43"/>
       <c r="M16" s="39"/>
       <c r="N16" s="41"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
       <c r="R16" s="41"/>
-      <c r="S16" s="56"/>
+      <c r="S16" s="55"/>
       <c r="T16" s="45"/>
       <c r="U16" s="41"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
       <c r="Y16" s="41"/>
-      <c r="Z16" s="69"/>
+      <c r="Z16" s="67"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="102"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="12"/>
       <c r="E17" s="10"/>
       <c r="F17" s="39"/>
@@ -3290,22 +3266,22 @@
       <c r="L17" s="43"/>
       <c r="M17" s="39"/>
       <c r="N17" s="41"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
       <c r="R17" s="41"/>
-      <c r="S17" s="56"/>
+      <c r="S17" s="55"/>
       <c r="T17" s="45"/>
       <c r="U17" s="41"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
       <c r="Y17" s="41"/>
-      <c r="Z17" s="69"/>
+      <c r="Z17" s="67"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="102"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="12"/>
       <c r="E18" s="10"/>
       <c r="F18" s="39"/>
@@ -3317,22 +3293,22 @@
       <c r="L18" s="43"/>
       <c r="M18" s="39"/>
       <c r="N18" s="41"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
       <c r="R18" s="41"/>
-      <c r="S18" s="56"/>
+      <c r="S18" s="55"/>
       <c r="T18" s="45"/>
       <c r="U18" s="41"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
       <c r="Y18" s="41"/>
-      <c r="Z18" s="69"/>
+      <c r="Z18" s="67"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="102"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="12"/>
       <c r="E19" s="10"/>
       <c r="F19" s="39"/>
@@ -3344,22 +3320,22 @@
       <c r="L19" s="43"/>
       <c r="M19" s="39"/>
       <c r="N19" s="41"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
       <c r="R19" s="41"/>
-      <c r="S19" s="56"/>
+      <c r="S19" s="55"/>
       <c r="T19" s="45"/>
       <c r="U19" s="41"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
       <c r="Y19" s="41"/>
-      <c r="Z19" s="69"/>
+      <c r="Z19" s="67"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="C20" s="102"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="12"/>
       <c r="E20" s="10"/>
       <c r="F20" s="39"/>
@@ -3371,22 +3347,22 @@
       <c r="L20" s="43"/>
       <c r="M20" s="39"/>
       <c r="N20" s="41"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
       <c r="R20" s="41"/>
-      <c r="S20" s="56"/>
+      <c r="S20" s="55"/>
       <c r="T20" s="45"/>
       <c r="U20" s="41"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
       <c r="Y20" s="41"/>
-      <c r="Z20" s="69"/>
+      <c r="Z20" s="67"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="C21" s="102"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="12"/>
       <c r="E21" s="10"/>
       <c r="F21" s="39"/>
@@ -3398,22 +3374,22 @@
       <c r="L21" s="43"/>
       <c r="M21" s="39"/>
       <c r="N21" s="41"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
       <c r="R21" s="41"/>
-      <c r="S21" s="56"/>
+      <c r="S21" s="55"/>
       <c r="T21" s="45"/>
       <c r="U21" s="41"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
       <c r="Y21" s="41"/>
-      <c r="Z21" s="69"/>
+      <c r="Z21" s="67"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="C22" s="102"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="12"/>
       <c r="E22" s="10"/>
       <c r="F22" s="39"/>
@@ -3425,22 +3401,22 @@
       <c r="L22" s="43"/>
       <c r="M22" s="39"/>
       <c r="N22" s="41"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
       <c r="R22" s="41"/>
-      <c r="S22" s="56"/>
+      <c r="S22" s="55"/>
       <c r="T22" s="45"/>
       <c r="U22" s="41"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
       <c r="Y22" s="41"/>
-      <c r="Z22" s="69"/>
+      <c r="Z22" s="67"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="102"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="12"/>
       <c r="E23" s="10"/>
       <c r="F23" s="39"/>
@@ -3452,22 +3428,22 @@
       <c r="L23" s="43"/>
       <c r="M23" s="39"/>
       <c r="N23" s="41"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
       <c r="R23" s="41"/>
-      <c r="S23" s="56"/>
+      <c r="S23" s="55"/>
       <c r="T23" s="45"/>
       <c r="U23" s="41"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
       <c r="Y23" s="41"/>
-      <c r="Z23" s="69"/>
+      <c r="Z23" s="67"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
-      <c r="C24" s="102"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="12"/>
       <c r="E24" s="10"/>
       <c r="F24" s="39"/>
@@ -3479,22 +3455,22 @@
       <c r="L24" s="43"/>
       <c r="M24" s="39"/>
       <c r="N24" s="41"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
       <c r="R24" s="41"/>
-      <c r="S24" s="56"/>
+      <c r="S24" s="55"/>
       <c r="T24" s="45"/>
       <c r="U24" s="41"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
       <c r="Y24" s="41"/>
-      <c r="Z24" s="69"/>
+      <c r="Z24" s="67"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
-      <c r="C25" s="102"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="12"/>
       <c r="E25" s="10"/>
       <c r="F25" s="39"/>
@@ -3506,22 +3482,22 @@
       <c r="L25" s="43"/>
       <c r="M25" s="39"/>
       <c r="N25" s="41"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
       <c r="R25" s="41"/>
-      <c r="S25" s="56"/>
+      <c r="S25" s="55"/>
       <c r="T25" s="45"/>
       <c r="U25" s="41"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
       <c r="Y25" s="41"/>
-      <c r="Z25" s="69"/>
+      <c r="Z25" s="67"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="C26" s="102"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="12"/>
       <c r="E26" s="10"/>
       <c r="F26" s="39"/>
@@ -3533,22 +3509,22 @@
       <c r="L26" s="43"/>
       <c r="M26" s="39"/>
       <c r="N26" s="41"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
       <c r="R26" s="41"/>
-      <c r="S26" s="56"/>
+      <c r="S26" s="55"/>
       <c r="T26" s="45"/>
       <c r="U26" s="41"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
       <c r="Y26" s="41"/>
-      <c r="Z26" s="69"/>
+      <c r="Z26" s="67"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="102"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="12"/>
       <c r="E27" s="10"/>
       <c r="F27" s="39"/>
@@ -3560,22 +3536,22 @@
       <c r="L27" s="43"/>
       <c r="M27" s="39"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
       <c r="R27" s="41"/>
-      <c r="S27" s="56"/>
+      <c r="S27" s="55"/>
       <c r="T27" s="45"/>
       <c r="U27" s="41"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
       <c r="Y27" s="41"/>
-      <c r="Z27" s="69"/>
+      <c r="Z27" s="67"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="102"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="12"/>
       <c r="E28" s="10"/>
       <c r="F28" s="39"/>
@@ -3587,22 +3563,22 @@
       <c r="L28" s="43"/>
       <c r="M28" s="39"/>
       <c r="N28" s="41"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
       <c r="R28" s="41"/>
-      <c r="S28" s="56"/>
+      <c r="S28" s="55"/>
       <c r="T28" s="45"/>
       <c r="U28" s="41"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
       <c r="Y28" s="41"/>
-      <c r="Z28" s="69"/>
+      <c r="Z28" s="67"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="C29" s="102"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="12"/>
       <c r="E29" s="10"/>
       <c r="F29" s="39"/>
@@ -3614,22 +3590,22 @@
       <c r="L29" s="43"/>
       <c r="M29" s="39"/>
       <c r="N29" s="41"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
       <c r="R29" s="41"/>
-      <c r="S29" s="56"/>
+      <c r="S29" s="55"/>
       <c r="T29" s="45"/>
       <c r="U29" s="41"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
       <c r="Y29" s="41"/>
-      <c r="Z29" s="69"/>
+      <c r="Z29" s="67"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="C30" s="102"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="12"/>
       <c r="E30" s="10"/>
       <c r="F30" s="39"/>
@@ -3641,22 +3617,22 @@
       <c r="L30" s="43"/>
       <c r="M30" s="39"/>
       <c r="N30" s="41"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
       <c r="R30" s="41"/>
-      <c r="S30" s="56"/>
+      <c r="S30" s="55"/>
       <c r="T30" s="45"/>
       <c r="U30" s="41"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
       <c r="Y30" s="41"/>
-      <c r="Z30" s="69"/>
+      <c r="Z30" s="67"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="C31" s="102"/>
+      <c r="C31" s="96"/>
       <c r="D31" s="12"/>
       <c r="E31" s="10"/>
       <c r="F31" s="39"/>
@@ -3668,22 +3644,22 @@
       <c r="L31" s="43"/>
       <c r="M31" s="39"/>
       <c r="N31" s="41"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
       <c r="R31" s="41"/>
-      <c r="S31" s="56"/>
+      <c r="S31" s="55"/>
       <c r="T31" s="45"/>
       <c r="U31" s="41"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
       <c r="Y31" s="41"/>
-      <c r="Z31" s="69"/>
+      <c r="Z31" s="67"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
-      <c r="C32" s="102"/>
+      <c r="C32" s="96"/>
       <c r="D32" s="12"/>
       <c r="E32" s="10"/>
       <c r="F32" s="39"/>
@@ -3695,22 +3671,22 @@
       <c r="L32" s="43"/>
       <c r="M32" s="39"/>
       <c r="N32" s="41"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
       <c r="R32" s="41"/>
-      <c r="S32" s="56"/>
+      <c r="S32" s="55"/>
       <c r="T32" s="45"/>
       <c r="U32" s="41"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
       <c r="Y32" s="41"/>
-      <c r="Z32" s="69"/>
+      <c r="Z32" s="67"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
-      <c r="C33" s="102"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="12"/>
       <c r="E33" s="10"/>
       <c r="F33" s="39"/>
@@ -3722,22 +3698,22 @@
       <c r="L33" s="43"/>
       <c r="M33" s="39"/>
       <c r="N33" s="41"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
       <c r="R33" s="41"/>
-      <c r="S33" s="56"/>
+      <c r="S33" s="55"/>
       <c r="T33" s="45"/>
       <c r="U33" s="41"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
       <c r="Y33" s="41"/>
-      <c r="Z33" s="69"/>
+      <c r="Z33" s="67"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
-      <c r="C34" s="102"/>
+      <c r="C34" s="96"/>
       <c r="D34" s="12"/>
       <c r="E34" s="10"/>
       <c r="F34" s="39"/>
@@ -3749,22 +3725,22 @@
       <c r="L34" s="43"/>
       <c r="M34" s="39"/>
       <c r="N34" s="41"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
       <c r="R34" s="41"/>
-      <c r="S34" s="56"/>
+      <c r="S34" s="55"/>
       <c r="T34" s="45"/>
       <c r="U34" s="41"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
       <c r="Y34" s="41"/>
-      <c r="Z34" s="69"/>
+      <c r="Z34" s="67"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
-      <c r="C35" s="102"/>
+      <c r="C35" s="96"/>
       <c r="D35" s="12"/>
       <c r="E35" s="10"/>
       <c r="F35" s="39"/>
@@ -3776,22 +3752,22 @@
       <c r="L35" s="43"/>
       <c r="M35" s="39"/>
       <c r="N35" s="41"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
       <c r="R35" s="41"/>
-      <c r="S35" s="56"/>
+      <c r="S35" s="55"/>
       <c r="T35" s="45"/>
       <c r="U35" s="41"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
       <c r="Y35" s="41"/>
-      <c r="Z35" s="69"/>
+      <c r="Z35" s="67"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
-      <c r="C36" s="102"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="12"/>
       <c r="E36" s="10"/>
       <c r="F36" s="39"/>
@@ -3803,22 +3779,22 @@
       <c r="L36" s="43"/>
       <c r="M36" s="39"/>
       <c r="N36" s="41"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
       <c r="R36" s="41"/>
-      <c r="S36" s="56"/>
+      <c r="S36" s="55"/>
       <c r="T36" s="45"/>
       <c r="U36" s="41"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
       <c r="Y36" s="41"/>
-      <c r="Z36" s="69"/>
+      <c r="Z36" s="67"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
-      <c r="C37" s="102"/>
+      <c r="C37" s="96"/>
       <c r="D37" s="12"/>
       <c r="E37" s="10"/>
       <c r="F37" s="39"/>
@@ -3830,22 +3806,22 @@
       <c r="L37" s="43"/>
       <c r="M37" s="39"/>
       <c r="N37" s="41"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
       <c r="R37" s="41"/>
-      <c r="S37" s="56"/>
+      <c r="S37" s="55"/>
       <c r="T37" s="45"/>
       <c r="U37" s="41"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
+      <c r="V37" s="58"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="58"/>
       <c r="Y37" s="41"/>
-      <c r="Z37" s="69"/>
+      <c r="Z37" s="67"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
-      <c r="C38" s="102"/>
+      <c r="C38" s="96"/>
       <c r="D38" s="12"/>
       <c r="E38" s="10"/>
       <c r="F38" s="39"/>
@@ -3857,22 +3833,22 @@
       <c r="L38" s="43"/>
       <c r="M38" s="39"/>
       <c r="N38" s="41"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
       <c r="R38" s="41"/>
-      <c r="S38" s="56"/>
+      <c r="S38" s="55"/>
       <c r="T38" s="45"/>
       <c r="U38" s="41"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="58"/>
       <c r="Y38" s="41"/>
-      <c r="Z38" s="69"/>
+      <c r="Z38" s="67"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="102"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="12"/>
       <c r="E39" s="10"/>
       <c r="F39" s="39"/>
@@ -3884,22 +3860,22 @@
       <c r="L39" s="43"/>
       <c r="M39" s="39"/>
       <c r="N39" s="41"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
       <c r="R39" s="41"/>
-      <c r="S39" s="56"/>
+      <c r="S39" s="55"/>
       <c r="T39" s="45"/>
       <c r="U39" s="41"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
       <c r="Y39" s="41"/>
-      <c r="Z39" s="69"/>
+      <c r="Z39" s="67"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="102"/>
+      <c r="C40" s="96"/>
       <c r="D40" s="12"/>
       <c r="E40" s="10"/>
       <c r="F40" s="39"/>
@@ -3911,22 +3887,22 @@
       <c r="L40" s="43"/>
       <c r="M40" s="39"/>
       <c r="N40" s="41"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
       <c r="R40" s="41"/>
-      <c r="S40" s="56"/>
+      <c r="S40" s="55"/>
       <c r="T40" s="45"/>
       <c r="U40" s="41"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
       <c r="Y40" s="41"/>
-      <c r="Z40" s="69"/>
+      <c r="Z40" s="67"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
-      <c r="C41" s="102"/>
+      <c r="C41" s="96"/>
       <c r="D41" s="12"/>
       <c r="E41" s="10"/>
       <c r="F41" s="39"/>
@@ -3938,22 +3914,22 @@
       <c r="L41" s="43"/>
       <c r="M41" s="39"/>
       <c r="N41" s="41"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
       <c r="R41" s="41"/>
-      <c r="S41" s="56"/>
+      <c r="S41" s="55"/>
       <c r="T41" s="45"/>
       <c r="U41" s="41"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
       <c r="Y41" s="41"/>
-      <c r="Z41" s="69"/>
+      <c r="Z41" s="67"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
-      <c r="C42" s="102"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="12"/>
       <c r="E42" s="10"/>
       <c r="F42" s="39"/>
@@ -3965,22 +3941,22 @@
       <c r="L42" s="43"/>
       <c r="M42" s="39"/>
       <c r="N42" s="41"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
       <c r="R42" s="41"/>
-      <c r="S42" s="56"/>
+      <c r="S42" s="55"/>
       <c r="T42" s="45"/>
       <c r="U42" s="41"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="59"/>
+      <c r="V42" s="58"/>
+      <c r="W42" s="58"/>
+      <c r="X42" s="58"/>
       <c r="Y42" s="41"/>
-      <c r="Z42" s="69"/>
+      <c r="Z42" s="67"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
-      <c r="C43" s="102"/>
+      <c r="C43" s="96"/>
       <c r="D43" s="12"/>
       <c r="E43" s="10"/>
       <c r="F43" s="39"/>
@@ -3992,22 +3968,22 @@
       <c r="L43" s="43"/>
       <c r="M43" s="39"/>
       <c r="N43" s="41"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
       <c r="R43" s="41"/>
-      <c r="S43" s="56"/>
+      <c r="S43" s="55"/>
       <c r="T43" s="45"/>
       <c r="U43" s="41"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="59"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
       <c r="Y43" s="41"/>
-      <c r="Z43" s="69"/>
+      <c r="Z43" s="67"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
-      <c r="C44" s="102"/>
+      <c r="C44" s="96"/>
       <c r="D44" s="12"/>
       <c r="E44" s="10"/>
       <c r="F44" s="39"/>
@@ -4019,22 +3995,22 @@
       <c r="L44" s="43"/>
       <c r="M44" s="39"/>
       <c r="N44" s="41"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
       <c r="R44" s="41"/>
-      <c r="S44" s="56"/>
+      <c r="S44" s="55"/>
       <c r="T44" s="45"/>
       <c r="U44" s="41"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="59"/>
+      <c r="V44" s="58"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58"/>
       <c r="Y44" s="41"/>
-      <c r="Z44" s="69"/>
+      <c r="Z44" s="67"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="C45" s="102"/>
+      <c r="C45" s="96"/>
       <c r="D45" s="12"/>
       <c r="E45" s="10"/>
       <c r="F45" s="39"/>
@@ -4046,22 +4022,22 @@
       <c r="L45" s="43"/>
       <c r="M45" s="39"/>
       <c r="N45" s="41"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
       <c r="R45" s="41"/>
-      <c r="S45" s="56"/>
+      <c r="S45" s="55"/>
       <c r="T45" s="45"/>
       <c r="U45" s="41"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
       <c r="Y45" s="41"/>
-      <c r="Z45" s="69"/>
+      <c r="Z45" s="67"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="C46" s="102"/>
+      <c r="C46" s="96"/>
       <c r="D46" s="12"/>
       <c r="E46" s="10"/>
       <c r="F46" s="39"/>
@@ -4073,22 +4049,22 @@
       <c r="L46" s="43"/>
       <c r="M46" s="39"/>
       <c r="N46" s="41"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="58"/>
       <c r="R46" s="41"/>
-      <c r="S46" s="56"/>
+      <c r="S46" s="55"/>
       <c r="T46" s="45"/>
       <c r="U46" s="41"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="59"/>
+      <c r="V46" s="58"/>
+      <c r="W46" s="58"/>
+      <c r="X46" s="58"/>
       <c r="Y46" s="41"/>
-      <c r="Z46" s="69"/>
+      <c r="Z46" s="67"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="C47" s="102"/>
+      <c r="C47" s="96"/>
       <c r="D47" s="12"/>
       <c r="E47" s="10"/>
       <c r="F47" s="39"/>
@@ -4100,22 +4076,22 @@
       <c r="L47" s="43"/>
       <c r="M47" s="39"/>
       <c r="N47" s="41"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="58"/>
       <c r="R47" s="41"/>
-      <c r="S47" s="56"/>
+      <c r="S47" s="55"/>
       <c r="T47" s="45"/>
       <c r="U47" s="41"/>
-      <c r="V47" s="59"/>
-      <c r="W47" s="59"/>
-      <c r="X47" s="59"/>
+      <c r="V47" s="58"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="58"/>
       <c r="Y47" s="41"/>
-      <c r="Z47" s="69"/>
+      <c r="Z47" s="67"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="C48" s="102"/>
+      <c r="C48" s="96"/>
       <c r="D48" s="12"/>
       <c r="E48" s="10"/>
       <c r="F48" s="39"/>
@@ -4127,22 +4103,22 @@
       <c r="L48" s="43"/>
       <c r="M48" s="39"/>
       <c r="N48" s="41"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
       <c r="R48" s="41"/>
-      <c r="S48" s="56"/>
+      <c r="S48" s="55"/>
       <c r="T48" s="45"/>
       <c r="U48" s="41"/>
-      <c r="V48" s="59"/>
-      <c r="W48" s="59"/>
-      <c r="X48" s="59"/>
+      <c r="V48" s="58"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58"/>
       <c r="Y48" s="41"/>
-      <c r="Z48" s="69"/>
+      <c r="Z48" s="67"/>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="102"/>
+      <c r="C49" s="96"/>
       <c r="D49" s="12"/>
       <c r="E49" s="10"/>
       <c r="F49" s="39"/>
@@ -4154,22 +4130,22 @@
       <c r="L49" s="43"/>
       <c r="M49" s="39"/>
       <c r="N49" s="41"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
       <c r="R49" s="41"/>
-      <c r="S49" s="56"/>
+      <c r="S49" s="55"/>
       <c r="T49" s="45"/>
       <c r="U49" s="41"/>
-      <c r="V49" s="59"/>
-      <c r="W49" s="59"/>
-      <c r="X49" s="59"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
       <c r="Y49" s="41"/>
-      <c r="Z49" s="69"/>
+      <c r="Z49" s="67"/>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="102"/>
+      <c r="C50" s="96"/>
       <c r="D50" s="12"/>
       <c r="E50" s="10"/>
       <c r="F50" s="39"/>
@@ -4181,22 +4157,22 @@
       <c r="L50" s="43"/>
       <c r="M50" s="39"/>
       <c r="N50" s="41"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="58"/>
       <c r="R50" s="41"/>
-      <c r="S50" s="56"/>
+      <c r="S50" s="55"/>
       <c r="T50" s="45"/>
       <c r="U50" s="41"/>
-      <c r="V50" s="59"/>
-      <c r="W50" s="59"/>
-      <c r="X50" s="59"/>
+      <c r="V50" s="58"/>
+      <c r="W50" s="58"/>
+      <c r="X50" s="58"/>
       <c r="Y50" s="41"/>
-      <c r="Z50" s="69"/>
+      <c r="Z50" s="67"/>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
-      <c r="C51" s="102"/>
+      <c r="C51" s="96"/>
       <c r="D51" s="12"/>
       <c r="E51" s="10"/>
       <c r="F51" s="39"/>
@@ -4208,22 +4184,22 @@
       <c r="L51" s="43"/>
       <c r="M51" s="39"/>
       <c r="N51" s="41"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="58"/>
       <c r="R51" s="41"/>
-      <c r="S51" s="56"/>
+      <c r="S51" s="55"/>
       <c r="T51" s="45"/>
       <c r="U51" s="41"/>
-      <c r="V51" s="59"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="59"/>
+      <c r="V51" s="58"/>
+      <c r="W51" s="58"/>
+      <c r="X51" s="58"/>
       <c r="Y51" s="41"/>
-      <c r="Z51" s="69"/>
+      <c r="Z51" s="67"/>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
-      <c r="C52" s="102"/>
+      <c r="C52" s="96"/>
       <c r="D52" s="12"/>
       <c r="E52" s="10"/>
       <c r="F52" s="39"/>
@@ -4235,22 +4211,22 @@
       <c r="L52" s="43"/>
       <c r="M52" s="39"/>
       <c r="N52" s="41"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
       <c r="R52" s="41"/>
-      <c r="S52" s="56"/>
+      <c r="S52" s="55"/>
       <c r="T52" s="45"/>
       <c r="U52" s="41"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="59"/>
+      <c r="V52" s="58"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="58"/>
       <c r="Y52" s="41"/>
-      <c r="Z52" s="69"/>
+      <c r="Z52" s="67"/>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
-      <c r="C53" s="102"/>
+      <c r="C53" s="96"/>
       <c r="D53" s="12"/>
       <c r="E53" s="10"/>
       <c r="F53" s="39"/>
@@ -4262,22 +4238,22 @@
       <c r="L53" s="43"/>
       <c r="M53" s="39"/>
       <c r="N53" s="41"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
       <c r="R53" s="41"/>
-      <c r="S53" s="56"/>
+      <c r="S53" s="55"/>
       <c r="T53" s="45"/>
       <c r="U53" s="41"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="59"/>
+      <c r="V53" s="58"/>
+      <c r="W53" s="58"/>
+      <c r="X53" s="58"/>
       <c r="Y53" s="41"/>
-      <c r="Z53" s="69"/>
+      <c r="Z53" s="67"/>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
-      <c r="C54" s="102"/>
+      <c r="C54" s="96"/>
       <c r="D54" s="12"/>
       <c r="E54" s="10"/>
       <c r="F54" s="39"/>
@@ -4289,22 +4265,22 @@
       <c r="L54" s="43"/>
       <c r="M54" s="39"/>
       <c r="N54" s="41"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="58"/>
       <c r="R54" s="41"/>
-      <c r="S54" s="56"/>
+      <c r="S54" s="55"/>
       <c r="T54" s="45"/>
       <c r="U54" s="41"/>
-      <c r="V54" s="59"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="59"/>
+      <c r="V54" s="58"/>
+      <c r="W54" s="58"/>
+      <c r="X54" s="58"/>
       <c r="Y54" s="41"/>
-      <c r="Z54" s="69"/>
+      <c r="Z54" s="67"/>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
-      <c r="C55" s="102"/>
+      <c r="C55" s="96"/>
       <c r="D55" s="12"/>
       <c r="E55" s="10"/>
       <c r="F55" s="39"/>
@@ -4316,22 +4292,22 @@
       <c r="L55" s="43"/>
       <c r="M55" s="39"/>
       <c r="N55" s="41"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="58"/>
       <c r="R55" s="41"/>
-      <c r="S55" s="56"/>
+      <c r="S55" s="55"/>
       <c r="T55" s="45"/>
       <c r="U55" s="41"/>
-      <c r="V55" s="59"/>
-      <c r="W55" s="59"/>
-      <c r="X55" s="59"/>
+      <c r="V55" s="58"/>
+      <c r="W55" s="58"/>
+      <c r="X55" s="58"/>
       <c r="Y55" s="41"/>
-      <c r="Z55" s="69"/>
+      <c r="Z55" s="67"/>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="C56" s="102"/>
+      <c r="C56" s="96"/>
       <c r="D56" s="12"/>
       <c r="E56" s="10"/>
       <c r="F56" s="39"/>
@@ -4343,22 +4319,22 @@
       <c r="L56" s="43"/>
       <c r="M56" s="39"/>
       <c r="N56" s="41"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
+      <c r="O56" s="58"/>
+      <c r="P56" s="58"/>
+      <c r="Q56" s="58"/>
       <c r="R56" s="41"/>
-      <c r="S56" s="56"/>
+      <c r="S56" s="55"/>
       <c r="T56" s="45"/>
       <c r="U56" s="41"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="59"/>
+      <c r="V56" s="58"/>
+      <c r="W56" s="58"/>
+      <c r="X56" s="58"/>
       <c r="Y56" s="41"/>
-      <c r="Z56" s="69"/>
+      <c r="Z56" s="67"/>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
-      <c r="C57" s="102"/>
+      <c r="C57" s="96"/>
       <c r="D57" s="12"/>
       <c r="E57" s="10"/>
       <c r="F57" s="39"/>
@@ -4370,29 +4346,29 @@
       <c r="L57" s="43"/>
       <c r="M57" s="39"/>
       <c r="N57" s="41"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
+      <c r="O57" s="58"/>
+      <c r="P57" s="58"/>
+      <c r="Q57" s="58"/>
       <c r="R57" s="41"/>
-      <c r="S57" s="56"/>
+      <c r="S57" s="55"/>
       <c r="T57" s="45"/>
       <c r="U57" s="41"/>
-      <c r="V57" s="59"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="59"/>
+      <c r="V57" s="58"/>
+      <c r="W57" s="58"/>
+      <c r="X57" s="58"/>
       <c r="Y57" s="41"/>
-      <c r="Z57" s="69"/>
+      <c r="Z57" s="67"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GXp6NskY7xYtmECy9arwiVD7c2qFqrP2EVeMaX2x42g5W/73LiYu2qcEuQs00V+qWJDFXvdPzcCHPwi0Yb7bow==" saltValue="LgVEQRJGVwjXZq/o+tmSgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4ZKuwSDwOFPgCLNCiawjwka1DVPll4aHrglnrmakYIdOVlj8mxRswetbKtSKSVZyxPYLBboAizK/rf4klBJ4ug==" saltValue="sJNAscM/bmHsEyytv1plOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="AB3:DW3"/>
     <mergeCell ref="B2:Z3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="T4:Z6"/>
+    <mergeCell ref="M4:S6"/>
+    <mergeCell ref="J4:L6"/>
+    <mergeCell ref="F4:I6"/>
+    <mergeCell ref="B4:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:Z1048576">
     <cfRule type="expression" dxfId="1" priority="3">

--- a/form_reporting_templates/Form-3DA-update.xlsx
+++ b/form_reporting_templates/Form-3DA-update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C5E82A-0DBC-436E-97DC-0079D35026D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA3C724-5925-43D4-A73A-6FD5085AFC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5DvQh67CqwpXF5nvK7dpPxR3Pt0yB/nZxqejbtUHEzmemyWSbLakjzpL/AJnjHY2PfyZeKC6tZsl2wcqhenc9Q==" workbookSaltValue="SFs4XJpRzZAAYXRJrz5n4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -42,9 +42,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
-    <t>Focal point</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>Raising</t>
   </si>
   <si>
-    <t>dFOB</t>
-  </si>
-  <si>
     <t>Type of fate</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
   </si>
   <si>
     <t>Main elements</t>
+  </si>
+  <si>
+    <t>Liaison officer</t>
+  </si>
+  <si>
+    <t>DFOB</t>
   </si>
 </sst>
 </file>
@@ -200,10 +200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000000000"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -792,7 +792,7 @@
   <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -809,22 +809,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -832,7 +832,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -861,7 +861,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -904,7 +904,7 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1063,16 +1063,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,12 +1081,20 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1188,14 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1541,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1557,39 +1557,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
+      <c r="B2" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="36"/>
     </row>
@@ -1605,7 +1605,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="20"/>
       <c r="C6" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -1624,26 +1624,26 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
-      <c r="C8" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="104"/>
+      <c r="C8" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="106"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="104"/>
+      <c r="F8" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="106"/>
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="23"/>
       <c r="F9" s="30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="19"/>
@@ -1651,12 +1651,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="19"/>
@@ -1673,9 +1673,9 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="134"/>
+        <v>42</v>
+      </c>
+      <c r="D12" s="101"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -1684,9 +1684,9 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="135"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="102"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
@@ -1713,7 +1713,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
       <c r="C16" s="27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -1733,12 +1733,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
       <c r="C18" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="23"/>
       <c r="F18" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="19"/>
@@ -1746,12 +1746,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="19"/>
@@ -1759,12 +1759,12 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
       <c r="C20" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="23"/>
       <c r="F20" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="19"/>
@@ -1790,7 +1790,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="20"/>
       <c r="C23" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="23"/>
@@ -1810,10 +1810,10 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="20"/>
       <c r="C25" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -1841,7 +1841,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="20"/>
       <c r="C28" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
@@ -1860,11 +1860,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="105"/>
       <c r="H30" s="19"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1881,7 +1881,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7CLTISIq63fLkMQf+0Haplh/15jPJSHYp5m07AXee+72VZ8PREFcKk/4ArBvTF+1o6vNuzxRQBXPgzjvArVxZw==" saltValue="3sZotm8jxsISJSt5FwavbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x8ZEPAaLv2irYjfBa44e/MIF4pHudESfhBEujlvpdGVhmYJeo8zRHmp+MggUj2Hv0IFU+LHRgGL3bvygsfFnAg==" saltValue="rbABiGQgr4MSNTO+MXv9qA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -2073,33 +2073,33 @@
       <c r="DW1"/>
     </row>
     <row r="2" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
+      <c r="B2" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
       <c r="AA2" s="68"/>
       <c r="AB2" s="68"/>
       <c r="AC2" s="68"/>
@@ -2203,173 +2203,173 @@
       <c r="DW2" s="69"/>
     </row>
     <row r="3" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
       <c r="AA3" s="70"/>
-      <c r="AB3" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="112"/>
-      <c r="AJ3" s="112"/>
-      <c r="AK3" s="112"/>
-      <c r="AL3" s="112"/>
-      <c r="AM3" s="112"/>
-      <c r="AN3" s="112"/>
-      <c r="AO3" s="112"/>
-      <c r="AP3" s="112"/>
-      <c r="AQ3" s="112"/>
-      <c r="AR3" s="112"/>
-      <c r="AS3" s="112"/>
-      <c r="AT3" s="112"/>
-      <c r="AU3" s="112"/>
-      <c r="AV3" s="112"/>
-      <c r="AW3" s="112"/>
-      <c r="AX3" s="112"/>
-      <c r="AY3" s="112"/>
-      <c r="AZ3" s="112"/>
-      <c r="BA3" s="112"/>
-      <c r="BB3" s="112"/>
-      <c r="BC3" s="112"/>
-      <c r="BD3" s="112"/>
-      <c r="BE3" s="112"/>
-      <c r="BF3" s="112"/>
-      <c r="BG3" s="112"/>
-      <c r="BH3" s="112"/>
-      <c r="BI3" s="112"/>
-      <c r="BJ3" s="112"/>
-      <c r="BK3" s="112"/>
-      <c r="BL3" s="112"/>
-      <c r="BM3" s="112"/>
-      <c r="BN3" s="112"/>
-      <c r="BO3" s="112"/>
-      <c r="BP3" s="112"/>
-      <c r="BQ3" s="112"/>
-      <c r="BR3" s="112"/>
-      <c r="BS3" s="112"/>
-      <c r="BT3" s="112"/>
-      <c r="BU3" s="112"/>
-      <c r="BV3" s="112"/>
-      <c r="BW3" s="112"/>
-      <c r="BX3" s="112"/>
-      <c r="BY3" s="112"/>
-      <c r="BZ3" s="112"/>
-      <c r="CA3" s="112"/>
-      <c r="CB3" s="112"/>
-      <c r="CC3" s="112"/>
-      <c r="CD3" s="112"/>
-      <c r="CE3" s="112"/>
-      <c r="CF3" s="112"/>
-      <c r="CG3" s="112"/>
-      <c r="CH3" s="112"/>
-      <c r="CI3" s="112"/>
-      <c r="CJ3" s="112"/>
-      <c r="CK3" s="112"/>
-      <c r="CL3" s="112"/>
-      <c r="CM3" s="112"/>
-      <c r="CN3" s="112"/>
-      <c r="CO3" s="112"/>
-      <c r="CP3" s="112"/>
-      <c r="CQ3" s="112"/>
-      <c r="CR3" s="112"/>
-      <c r="CS3" s="112"/>
-      <c r="CT3" s="112"/>
-      <c r="CU3" s="112"/>
-      <c r="CV3" s="112"/>
-      <c r="CW3" s="112"/>
-      <c r="CX3" s="112"/>
-      <c r="CY3" s="112"/>
-      <c r="CZ3" s="112"/>
-      <c r="DA3" s="112"/>
-      <c r="DB3" s="112"/>
-      <c r="DC3" s="112"/>
-      <c r="DD3" s="112"/>
-      <c r="DE3" s="112"/>
-      <c r="DF3" s="112"/>
-      <c r="DG3" s="112"/>
-      <c r="DH3" s="112"/>
-      <c r="DI3" s="112"/>
-      <c r="DJ3" s="112"/>
-      <c r="DK3" s="112"/>
-      <c r="DL3" s="112"/>
-      <c r="DM3" s="112"/>
-      <c r="DN3" s="112"/>
-      <c r="DO3" s="112"/>
-      <c r="DP3" s="112"/>
-      <c r="DQ3" s="112"/>
-      <c r="DR3" s="112"/>
-      <c r="DS3" s="112"/>
-      <c r="DT3" s="112"/>
-      <c r="DU3" s="112"/>
-      <c r="DV3" s="112"/>
-      <c r="DW3" s="113"/>
+      <c r="AB3" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="114"/>
+      <c r="AN3" s="114"/>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="114"/>
+      <c r="AQ3" s="114"/>
+      <c r="AR3" s="114"/>
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="114"/>
+      <c r="AV3" s="114"/>
+      <c r="AW3" s="114"/>
+      <c r="AX3" s="114"/>
+      <c r="AY3" s="114"/>
+      <c r="AZ3" s="114"/>
+      <c r="BA3" s="114"/>
+      <c r="BB3" s="114"/>
+      <c r="BC3" s="114"/>
+      <c r="BD3" s="114"/>
+      <c r="BE3" s="114"/>
+      <c r="BF3" s="114"/>
+      <c r="BG3" s="114"/>
+      <c r="BH3" s="114"/>
+      <c r="BI3" s="114"/>
+      <c r="BJ3" s="114"/>
+      <c r="BK3" s="114"/>
+      <c r="BL3" s="114"/>
+      <c r="BM3" s="114"/>
+      <c r="BN3" s="114"/>
+      <c r="BO3" s="114"/>
+      <c r="BP3" s="114"/>
+      <c r="BQ3" s="114"/>
+      <c r="BR3" s="114"/>
+      <c r="BS3" s="114"/>
+      <c r="BT3" s="114"/>
+      <c r="BU3" s="114"/>
+      <c r="BV3" s="114"/>
+      <c r="BW3" s="114"/>
+      <c r="BX3" s="114"/>
+      <c r="BY3" s="114"/>
+      <c r="BZ3" s="114"/>
+      <c r="CA3" s="114"/>
+      <c r="CB3" s="114"/>
+      <c r="CC3" s="114"/>
+      <c r="CD3" s="114"/>
+      <c r="CE3" s="114"/>
+      <c r="CF3" s="114"/>
+      <c r="CG3" s="114"/>
+      <c r="CH3" s="114"/>
+      <c r="CI3" s="114"/>
+      <c r="CJ3" s="114"/>
+      <c r="CK3" s="114"/>
+      <c r="CL3" s="114"/>
+      <c r="CM3" s="114"/>
+      <c r="CN3" s="114"/>
+      <c r="CO3" s="114"/>
+      <c r="CP3" s="114"/>
+      <c r="CQ3" s="114"/>
+      <c r="CR3" s="114"/>
+      <c r="CS3" s="114"/>
+      <c r="CT3" s="114"/>
+      <c r="CU3" s="114"/>
+      <c r="CV3" s="114"/>
+      <c r="CW3" s="114"/>
+      <c r="CX3" s="114"/>
+      <c r="CY3" s="114"/>
+      <c r="CZ3" s="114"/>
+      <c r="DA3" s="114"/>
+      <c r="DB3" s="114"/>
+      <c r="DC3" s="114"/>
+      <c r="DD3" s="114"/>
+      <c r="DE3" s="114"/>
+      <c r="DF3" s="114"/>
+      <c r="DG3" s="114"/>
+      <c r="DH3" s="114"/>
+      <c r="DI3" s="114"/>
+      <c r="DJ3" s="114"/>
+      <c r="DK3" s="114"/>
+      <c r="DL3" s="114"/>
+      <c r="DM3" s="114"/>
+      <c r="DN3" s="114"/>
+      <c r="DO3" s="114"/>
+      <c r="DP3" s="114"/>
+      <c r="DQ3" s="114"/>
+      <c r="DR3" s="114"/>
+      <c r="DS3" s="114"/>
+      <c r="DT3" s="114"/>
+      <c r="DU3" s="114"/>
+      <c r="DV3" s="114"/>
+      <c r="DW3" s="115"/>
     </row>
     <row r="4" spans="2:127" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="116" t="s">
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="125" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="116" t="s">
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="116" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="118"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="120"/>
       <c r="AA4" s="88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB4" s="73"/>
       <c r="AC4" s="74"/>
@@ -2473,33 +2473,33 @@
       <c r="DW4" s="75"/>
     </row>
     <row r="5" spans="2:127" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="121"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="123"/>
       <c r="AA5" s="89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="76"/>
       <c r="AC5" s="77"/>
@@ -2603,33 +2603,33 @@
       <c r="DW5" s="78"/>
     </row>
     <row r="6" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="131"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="123"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="124"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="126"/>
       <c r="AA6" s="90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB6" s="76"/>
       <c r="AC6" s="77"/>
@@ -2734,82 +2734,82 @@
     </row>
     <row r="7" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="60" t="s">
+      <c r="F7" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="59" t="s">
+      <c r="H7" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="61" t="s">
+      <c r="N7" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="O7" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="62" t="s">
+      <c r="P7" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="60" t="s">
+      <c r="W7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="60" t="s">
+      <c r="X7" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="60" t="s">
+      <c r="Y7" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="60" t="s">
+      <c r="AA7" s="91" t="s">
         <v>30</v>
-      </c>
-      <c r="S7" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="V7" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="X7" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA7" s="91" t="s">
-        <v>31</v>
       </c>
       <c r="AB7" s="79"/>
       <c r="AC7" s="80"/>
@@ -4364,7 +4364,7 @@
       <c r="Z57" s="66"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4ZKuwSDwOFPgCLNCiawjwka1DVPll4aHrglnrmakYIdOVlj8mxRswetbKtSKSVZyxPYLBboAizK/rf4klBJ4ug==" saltValue="sJNAscM/bmHsEyytv1plOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="64w6E+roc2ylf8WLeHyObZ6ab6I8Ba63rfyKpnhiMslClcUFToM+ajllCeI6kuOb91FrkvYZoMJVppXOFgarfg==" saltValue="8P9fzjEAFMoLANqOX3JWHw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="AB3:DW3"/>
     <mergeCell ref="B2:Z3"/>

--- a/form_reporting_templates/Form-3DA-update.xlsx
+++ b/form_reporting_templates/Form-3DA-update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data_dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA3C724-5925-43D4-A73A-6FD5085AFC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928734C5-741F-4607-AB0A-BA09B216E491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5DvQh67CqwpXF5nvK7dpPxR3Pt0yB/nZxqejbtUHEzmemyWSbLakjzpL/AJnjHY2PfyZeKC6tZsl2wcqhenc9Q==" workbookSaltValue="SFs4XJpRzZAAYXRJrz5n4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -1051,151 +1051,151 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1541,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1557,24 +1557,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
@@ -1624,15 +1624,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="106"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="106"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
       <c r="C12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="101"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -1686,7 +1686,7 @@
       <c r="C13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="102"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
@@ -1812,7 +1812,7 @@
       <c r="C25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="96" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="23"/>
@@ -1860,11 +1860,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="105"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="19"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="96" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="95" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="10" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="47" bestFit="1" customWidth="1"/>
@@ -1946,7 +1946,7 @@
   <sheetData>
     <row r="1" spans="2:127" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5"/>
-      <c r="C1" s="93"/>
+      <c r="C1" s="92"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="46"/>
@@ -2073,33 +2073,33 @@
       <c r="DW1"/>
     </row>
     <row r="2" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
       <c r="AA2" s="68"/>
       <c r="AB2" s="68"/>
       <c r="AC2" s="68"/>
@@ -2203,171 +2203,171 @@
       <c r="DW2" s="69"/>
     </row>
     <row r="3" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
       <c r="AA3" s="70"/>
-      <c r="AB3" s="113" t="s">
+      <c r="AB3" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="114"/>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114"/>
-      <c r="AQ3" s="114"/>
-      <c r="AR3" s="114"/>
-      <c r="AS3" s="114"/>
-      <c r="AT3" s="114"/>
-      <c r="AU3" s="114"/>
-      <c r="AV3" s="114"/>
-      <c r="AW3" s="114"/>
-      <c r="AX3" s="114"/>
-      <c r="AY3" s="114"/>
-      <c r="AZ3" s="114"/>
-      <c r="BA3" s="114"/>
-      <c r="BB3" s="114"/>
-      <c r="BC3" s="114"/>
-      <c r="BD3" s="114"/>
-      <c r="BE3" s="114"/>
-      <c r="BF3" s="114"/>
-      <c r="BG3" s="114"/>
-      <c r="BH3" s="114"/>
-      <c r="BI3" s="114"/>
-      <c r="BJ3" s="114"/>
-      <c r="BK3" s="114"/>
-      <c r="BL3" s="114"/>
-      <c r="BM3" s="114"/>
-      <c r="BN3" s="114"/>
-      <c r="BO3" s="114"/>
-      <c r="BP3" s="114"/>
-      <c r="BQ3" s="114"/>
-      <c r="BR3" s="114"/>
-      <c r="BS3" s="114"/>
-      <c r="BT3" s="114"/>
-      <c r="BU3" s="114"/>
-      <c r="BV3" s="114"/>
-      <c r="BW3" s="114"/>
-      <c r="BX3" s="114"/>
-      <c r="BY3" s="114"/>
-      <c r="BZ3" s="114"/>
-      <c r="CA3" s="114"/>
-      <c r="CB3" s="114"/>
-      <c r="CC3" s="114"/>
-      <c r="CD3" s="114"/>
-      <c r="CE3" s="114"/>
-      <c r="CF3" s="114"/>
-      <c r="CG3" s="114"/>
-      <c r="CH3" s="114"/>
-      <c r="CI3" s="114"/>
-      <c r="CJ3" s="114"/>
-      <c r="CK3" s="114"/>
-      <c r="CL3" s="114"/>
-      <c r="CM3" s="114"/>
-      <c r="CN3" s="114"/>
-      <c r="CO3" s="114"/>
-      <c r="CP3" s="114"/>
-      <c r="CQ3" s="114"/>
-      <c r="CR3" s="114"/>
-      <c r="CS3" s="114"/>
-      <c r="CT3" s="114"/>
-      <c r="CU3" s="114"/>
-      <c r="CV3" s="114"/>
-      <c r="CW3" s="114"/>
-      <c r="CX3" s="114"/>
-      <c r="CY3" s="114"/>
-      <c r="CZ3" s="114"/>
-      <c r="DA3" s="114"/>
-      <c r="DB3" s="114"/>
-      <c r="DC3" s="114"/>
-      <c r="DD3" s="114"/>
-      <c r="DE3" s="114"/>
-      <c r="DF3" s="114"/>
-      <c r="DG3" s="114"/>
-      <c r="DH3" s="114"/>
-      <c r="DI3" s="114"/>
-      <c r="DJ3" s="114"/>
-      <c r="DK3" s="114"/>
-      <c r="DL3" s="114"/>
-      <c r="DM3" s="114"/>
-      <c r="DN3" s="114"/>
-      <c r="DO3" s="114"/>
-      <c r="DP3" s="114"/>
-      <c r="DQ3" s="114"/>
-      <c r="DR3" s="114"/>
-      <c r="DS3" s="114"/>
-      <c r="DT3" s="114"/>
-      <c r="DU3" s="114"/>
-      <c r="DV3" s="114"/>
-      <c r="DW3" s="115"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113"/>
+      <c r="AT3" s="113"/>
+      <c r="AU3" s="113"/>
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
+      <c r="AX3" s="113"/>
+      <c r="AY3" s="113"/>
+      <c r="AZ3" s="113"/>
+      <c r="BA3" s="113"/>
+      <c r="BB3" s="113"/>
+      <c r="BC3" s="113"/>
+      <c r="BD3" s="113"/>
+      <c r="BE3" s="113"/>
+      <c r="BF3" s="113"/>
+      <c r="BG3" s="113"/>
+      <c r="BH3" s="113"/>
+      <c r="BI3" s="113"/>
+      <c r="BJ3" s="113"/>
+      <c r="BK3" s="113"/>
+      <c r="BL3" s="113"/>
+      <c r="BM3" s="113"/>
+      <c r="BN3" s="113"/>
+      <c r="BO3" s="113"/>
+      <c r="BP3" s="113"/>
+      <c r="BQ3" s="113"/>
+      <c r="BR3" s="113"/>
+      <c r="BS3" s="113"/>
+      <c r="BT3" s="113"/>
+      <c r="BU3" s="113"/>
+      <c r="BV3" s="113"/>
+      <c r="BW3" s="113"/>
+      <c r="BX3" s="113"/>
+      <c r="BY3" s="113"/>
+      <c r="BZ3" s="113"/>
+      <c r="CA3" s="113"/>
+      <c r="CB3" s="113"/>
+      <c r="CC3" s="113"/>
+      <c r="CD3" s="113"/>
+      <c r="CE3" s="113"/>
+      <c r="CF3" s="113"/>
+      <c r="CG3" s="113"/>
+      <c r="CH3" s="113"/>
+      <c r="CI3" s="113"/>
+      <c r="CJ3" s="113"/>
+      <c r="CK3" s="113"/>
+      <c r="CL3" s="113"/>
+      <c r="CM3" s="113"/>
+      <c r="CN3" s="113"/>
+      <c r="CO3" s="113"/>
+      <c r="CP3" s="113"/>
+      <c r="CQ3" s="113"/>
+      <c r="CR3" s="113"/>
+      <c r="CS3" s="113"/>
+      <c r="CT3" s="113"/>
+      <c r="CU3" s="113"/>
+      <c r="CV3" s="113"/>
+      <c r="CW3" s="113"/>
+      <c r="CX3" s="113"/>
+      <c r="CY3" s="113"/>
+      <c r="CZ3" s="113"/>
+      <c r="DA3" s="113"/>
+      <c r="DB3" s="113"/>
+      <c r="DC3" s="113"/>
+      <c r="DD3" s="113"/>
+      <c r="DE3" s="113"/>
+      <c r="DF3" s="113"/>
+      <c r="DG3" s="113"/>
+      <c r="DH3" s="113"/>
+      <c r="DI3" s="113"/>
+      <c r="DJ3" s="113"/>
+      <c r="DK3" s="113"/>
+      <c r="DL3" s="113"/>
+      <c r="DM3" s="113"/>
+      <c r="DN3" s="113"/>
+      <c r="DO3" s="113"/>
+      <c r="DP3" s="113"/>
+      <c r="DQ3" s="113"/>
+      <c r="DR3" s="113"/>
+      <c r="DS3" s="113"/>
+      <c r="DT3" s="113"/>
+      <c r="DU3" s="113"/>
+      <c r="DV3" s="113"/>
+      <c r="DW3" s="114"/>
     </row>
     <row r="4" spans="2:127" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="118" t="s">
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="127" t="s">
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="118" t="s">
+      <c r="K4" s="118"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="118" t="s">
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="120"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="122"/>
       <c r="AA4" s="88" t="s">
         <v>31</v>
       </c>
@@ -2473,31 +2473,31 @@
       <c r="DW4" s="75"/>
     </row>
     <row r="5" spans="2:127" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="130"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="123"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="128"/>
       <c r="AA5" s="89" t="s">
         <v>34</v>
       </c>
@@ -2603,32 +2603,32 @@
       <c r="DW5" s="78"/>
     </row>
     <row r="6" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="133"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="90" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="135" t="s">
         <v>33</v>
       </c>
       <c r="AB6" s="76"/>
@@ -2733,16 +2733,16 @@
       <c r="DW6" s="78"/>
     </row>
     <row r="7" spans="2:127" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="98" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="99" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="59" t="s">
@@ -2760,7 +2760,7 @@
       <c r="J7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="91" t="s">
         <v>20</v>
       </c>
       <c r="L7" s="62" t="s">
@@ -2808,7 +2808,7 @@
       <c r="Z7" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" s="91" t="s">
+      <c r="AA7" s="90" t="s">
         <v>30</v>
       </c>
       <c r="AB7" s="79"/>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="8" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
-      <c r="C8" s="94"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="13"/>
       <c r="E8" s="15"/>
       <c r="F8" s="37"/>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="9" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
-      <c r="C9" s="95"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="11"/>
       <c r="E9" s="9"/>
       <c r="F9" s="38"/>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="10" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
-      <c r="C10" s="95"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="11"/>
       <c r="E10" s="9"/>
       <c r="F10" s="38"/>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="11" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
-      <c r="C11" s="95"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9"/>
       <c r="F11" s="38"/>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="12" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
-      <c r="C12" s="95"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="11"/>
       <c r="E12" s="9"/>
       <c r="F12" s="38"/>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="13" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
-      <c r="C13" s="95"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="11"/>
       <c r="E13" s="9"/>
       <c r="F13" s="38"/>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="14" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
-      <c r="C14" s="95"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9"/>
       <c r="F14" s="38"/>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="15" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="C15" s="95"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="11"/>
       <c r="E15" s="9"/>
       <c r="F15" s="38"/>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="16" spans="2:127" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="95"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="11"/>
       <c r="E16" s="9"/>
       <c r="F16" s="38"/>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
-      <c r="C17" s="95"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="11"/>
       <c r="E17" s="9"/>
       <c r="F17" s="38"/>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
-      <c r="C18" s="95"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="11"/>
       <c r="E18" s="9"/>
       <c r="F18" s="38"/>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
-      <c r="C19" s="95"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="11"/>
       <c r="E19" s="9"/>
       <c r="F19" s="38"/>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
-      <c r="C20" s="95"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="11"/>
       <c r="E20" s="9"/>
       <c r="F20" s="38"/>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
-      <c r="C21" s="95"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="11"/>
       <c r="E21" s="9"/>
       <c r="F21" s="38"/>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
-      <c r="C22" s="95"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="11"/>
       <c r="E22" s="9"/>
       <c r="F22" s="38"/>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
-      <c r="C23" s="95"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="11"/>
       <c r="E23" s="9"/>
       <c r="F23" s="38"/>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
-      <c r="C24" s="95"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="11"/>
       <c r="E24" s="9"/>
       <c r="F24" s="38"/>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
-      <c r="C25" s="95"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="11"/>
       <c r="E25" s="9"/>
       <c r="F25" s="38"/>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
-      <c r="C26" s="95"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="11"/>
       <c r="E26" s="9"/>
       <c r="F26" s="38"/>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
-      <c r="C27" s="95"/>
+      <c r="C27" s="94"/>
       <c r="D27" s="11"/>
       <c r="E27" s="9"/>
       <c r="F27" s="38"/>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
-      <c r="C28" s="95"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="11"/>
       <c r="E28" s="9"/>
       <c r="F28" s="38"/>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
-      <c r="C29" s="95"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="11"/>
       <c r="E29" s="9"/>
       <c r="F29" s="38"/>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
-      <c r="C30" s="95"/>
+      <c r="C30" s="94"/>
       <c r="D30" s="11"/>
       <c r="E30" s="9"/>
       <c r="F30" s="38"/>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
-      <c r="C31" s="95"/>
+      <c r="C31" s="94"/>
       <c r="D31" s="11"/>
       <c r="E31" s="9"/>
       <c r="F31" s="38"/>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
-      <c r="C32" s="95"/>
+      <c r="C32" s="94"/>
       <c r="D32" s="11"/>
       <c r="E32" s="9"/>
       <c r="F32" s="38"/>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
-      <c r="C33" s="95"/>
+      <c r="C33" s="94"/>
       <c r="D33" s="11"/>
       <c r="E33" s="9"/>
       <c r="F33" s="38"/>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="C34" s="95"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="11"/>
       <c r="E34" s="9"/>
       <c r="F34" s="38"/>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
-      <c r="C35" s="95"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="11"/>
       <c r="E35" s="9"/>
       <c r="F35" s="38"/>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
-      <c r="C36" s="95"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="11"/>
       <c r="E36" s="9"/>
       <c r="F36" s="38"/>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
-      <c r="C37" s="95"/>
+      <c r="C37" s="94"/>
       <c r="D37" s="11"/>
       <c r="E37" s="9"/>
       <c r="F37" s="38"/>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
-      <c r="C38" s="95"/>
+      <c r="C38" s="94"/>
       <c r="D38" s="11"/>
       <c r="E38" s="9"/>
       <c r="F38" s="38"/>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
-      <c r="C39" s="95"/>
+      <c r="C39" s="94"/>
       <c r="D39" s="11"/>
       <c r="E39" s="9"/>
       <c r="F39" s="38"/>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
-      <c r="C40" s="95"/>
+      <c r="C40" s="94"/>
       <c r="D40" s="11"/>
       <c r="E40" s="9"/>
       <c r="F40" s="38"/>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
-      <c r="C41" s="95"/>
+      <c r="C41" s="94"/>
       <c r="D41" s="11"/>
       <c r="E41" s="9"/>
       <c r="F41" s="38"/>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
-      <c r="C42" s="95"/>
+      <c r="C42" s="94"/>
       <c r="D42" s="11"/>
       <c r="E42" s="9"/>
       <c r="F42" s="38"/>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
-      <c r="C43" s="95"/>
+      <c r="C43" s="94"/>
       <c r="D43" s="11"/>
       <c r="E43" s="9"/>
       <c r="F43" s="38"/>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="C44" s="95"/>
+      <c r="C44" s="94"/>
       <c r="D44" s="11"/>
       <c r="E44" s="9"/>
       <c r="F44" s="38"/>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="C45" s="95"/>
+      <c r="C45" s="94"/>
       <c r="D45" s="11"/>
       <c r="E45" s="9"/>
       <c r="F45" s="38"/>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
-      <c r="C46" s="95"/>
+      <c r="C46" s="94"/>
       <c r="D46" s="11"/>
       <c r="E46" s="9"/>
       <c r="F46" s="38"/>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
-      <c r="C47" s="95"/>
+      <c r="C47" s="94"/>
       <c r="D47" s="11"/>
       <c r="E47" s="9"/>
       <c r="F47" s="38"/>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
-      <c r="C48" s="95"/>
+      <c r="C48" s="94"/>
       <c r="D48" s="11"/>
       <c r="E48" s="9"/>
       <c r="F48" s="38"/>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
-      <c r="C49" s="95"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="11"/>
       <c r="E49" s="9"/>
       <c r="F49" s="38"/>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
-      <c r="C50" s="95"/>
+      <c r="C50" s="94"/>
       <c r="D50" s="11"/>
       <c r="E50" s="9"/>
       <c r="F50" s="38"/>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
-      <c r="C51" s="95"/>
+      <c r="C51" s="94"/>
       <c r="D51" s="11"/>
       <c r="E51" s="9"/>
       <c r="F51" s="38"/>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
-      <c r="C52" s="95"/>
+      <c r="C52" s="94"/>
       <c r="D52" s="11"/>
       <c r="E52" s="9"/>
       <c r="F52" s="38"/>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
-      <c r="C53" s="95"/>
+      <c r="C53" s="94"/>
       <c r="D53" s="11"/>
       <c r="E53" s="9"/>
       <c r="F53" s="38"/>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
-      <c r="C54" s="95"/>
+      <c r="C54" s="94"/>
       <c r="D54" s="11"/>
       <c r="E54" s="9"/>
       <c r="F54" s="38"/>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
-      <c r="C55" s="95"/>
+      <c r="C55" s="94"/>
       <c r="D55" s="11"/>
       <c r="E55" s="9"/>
       <c r="F55" s="38"/>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
-      <c r="C56" s="95"/>
+      <c r="C56" s="94"/>
       <c r="D56" s="11"/>
       <c r="E56" s="9"/>
       <c r="F56" s="38"/>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
-      <c r="C57" s="95"/>
+      <c r="C57" s="94"/>
       <c r="D57" s="11"/>
       <c r="E57" s="9"/>
       <c r="F57" s="38"/>
@@ -4364,7 +4364,7 @@
       <c r="Z57" s="66"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="64w6E+roc2ylf8WLeHyObZ6ab6I8Ba63rfyKpnhiMslClcUFToM+ajllCeI6kuOb91FrkvYZoMJVppXOFgarfg==" saltValue="8P9fzjEAFMoLANqOX3JWHw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BZZQ9tXE2/4OgjNfM3SgWcrepypai8N5CQ8SMV1rxN9dei19DrJpCYTtGVUwkIyc5tvzgxKEWi2w51pbyKSA3Q==" saltValue="g5EcloIsnFYTxrp9aF3UvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="AB3:DW3"/>
     <mergeCell ref="B2:Z3"/>
